--- a/문서/API(99).xlsx
+++ b/문서/API(99).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="12350" windowHeight="11460" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="25340" windowHeight="11490" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -21,69 +21,120 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="378">
   <x:si>
-    <x:t>포인트 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
- { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "pengsoo",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53"
+    <x:t>POST /api/subject/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/comment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/login/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/birthdate/delete/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/video/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/image/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/birthdate/update/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/realname/update/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/cart/{user_name}/
+{subject_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/board/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/realname/delete/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/under/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title":"1종 자동.1종 수동 면허",
+"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+"price":10000,
+"instructor_name":"panda",
+"subject_type":[
+  {
+   "subject_id":1,
+   " type_id":...
+       [
+       {"name":"승용차" 등등....
+       }
+       ],
+ "image_id":1
+   {
+   "image_url" : "image_url"
+    }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "pororo",
+    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+    "email": "pororo@email.com",
+    "realName": "김성우",
+    "birthdate": "1999-06-09",
+    "authority": {
+        "authorityName": "USER"
     },
-    {
-        "id": 2,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "fourbie",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /video/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": null,
-    "email": "rupee@email.com",
-    "realName": "조인성",
-    "birthdate": "1981-10-10",
-    "role": "User",
-    "point": 10000
+    "createdAt": "2025-01-16",
+    "point": 50000
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "긴급 휴강 안내",
-        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-        "createdDate": "2025-01-16T12:29:53"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.02은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{"id":1,
-"title":"긴급 휴강 안내",
-"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-"created_date":"NOW"
-}
+    <x:t>GET /api/user/authority/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/update/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/authority/update/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/buy-all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/birthdate/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/username/update/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/cart/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/notice/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/video/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/least-points
 </x:t>
   </x:si>
   <x:si>
@@ -97,6 +148,25 @@
 ]</x:t>
   </x:si>
   <x:si>
+    <x:t>{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.02은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{"id":1,
+"title":"긴급 휴강 안내",
+"content":"강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+"created_date":"NOW"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
+ { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
+  </x:si>
+  <x:si>
     <x:t>DELETE /api/admin/delete/car-types/{car_type_id}</x:t>
   </x:si>
   <x:si>
@@ -106,189 +176,33 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 포인트가 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습완료한 전체 수강 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/notice/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원을 불러와 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 공지사항의 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소  삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 학습내역 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용이 수정되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항에 글을 등록하는기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 을 불러와 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 내용을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /notice/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 의 모든 과목을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /board/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/board/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글등록이 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /image/add</x:t>
+    <x:t>GET/api/board/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 realname의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/date/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/cart/delete/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/video/add</x:t>
   </x:si>
   <x:si>
     <x:t>{
-    "userName" : "crong",
-    "password" : "new1234567"
+    "userName": "pororo",
+    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+    "email": "pororo@email.com",
+    "realName": "김성우",
+    "birthdate": "1999-06-09",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-15T15:54:34",
+    "point": 50000
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 5,
-    "user": "crong",
-    "comment": "드리프트는 멋있지",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "user_name": "totoro",
-  "selected_subject_ids": [1, 2],
-  "use_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName" : "crong",
-    "comment" : "드리프트는 잘 하면 돼", 
-    "boardId" : "1"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "message": "모든 강의가 성공적으로 구매되었습니다.",
-  "total_amount": 20000,
-  "discounted_amount": 15000,
-  "used_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "message": "선택한 강의가 성공적으로 구매되었습니다.",
-  "total_amount": 15000,
-  "discounted_amount": 10000,
-  "used_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 수정되었습니다.",
-  "subject_id": 1,
-  "old_car_type_id": 23,
-  "new_car_type_id": 24
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 4,
-    "title": "안녕 못합니다..",
-    "content": "안녕 안합니다. 다들 새해복 많이 받으세요",
-    "author": "rupee",
-    "createdDate": "2025-01-17T11:19:55.261156",
-    "modifiedDate": "2025-01-17T12:50:33.8958901"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/admin/update/car-types/{car_type_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>GET</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/admin/user/{user_name}/completed-subjects</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"image_url":"image_url1",
-"subject_id":1
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/authority/delete/{user_authority}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
@@ -313,6 +227,388 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>PUT /api/admin/notice/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 
+삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 내용을 생성 합니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자의 게시글이 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 공지사항이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 강의 
+전체 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 등록이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목별 강의 동영상 자료 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 공지사항을 
+보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 달린 댓글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 생성이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 작성 게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 수강 신청을 조회하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"해당 공지사항이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글의 답글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시판의 답글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상이 등록 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/email/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 4,
+    "title": "안녕 못합니다..",
+    "content": "안녕 안합니다. 다들 새해복 많이 받으세요",
+    "author": "rupee",
+    "createdDate": "2025-01-17T11:19:55.261156",
+    "modifiedDate": "2025-01-17T12:50:33.8958901"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"박병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@gemail.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"김병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "rupee",
+    "password" : "1234"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/image/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/admin/update/car-types/{car_type_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"image_url":"image_url1",
+"subject_id":1
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "user_name": "totoro",
+  "subject_id": 1,
+  "price": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "user": "pengsoo",
+        "comment": "ㅎㅎ",
+        "boardId": 1
+    },
+    {
+        "id": 2,
+        "user": "totoro",
+        "comment": "ㄴㄴ",
+        "boardId": 1
+    },
+    {
+        "id": 3,
+        "user": "fourbie",
+        "comment": "ㅇㅇ",
+        "boardId": 1
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "crong",
+    "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+    "email": "crong@email.com",
+    "realName": "정우성",
+    "birthdate": "1980-12-12",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-17",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+{
+"subject_id" : 1
+  {
+"price":10000
+   },
+"user_name": "totoro"
+},
+{
+"subject_id" :2  
+  {
+  "price":10000
+   },
+"user_name": "totoro"
+}
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "user_name": "totoro",
+  "real_name": "토토로",
+  "email": "totoro@example.com",
+  "point": 15000,
+  "enrollment_date": "2023-01-15"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "user_name": "johndoe",
+  "real_name": "John Doe",
+  "email": "johndoe@example.com",
+  "point": 5000,
+  "enrollment_date": "2023-02-10"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": 1234,
+    "email": "rupee@email.com",
+    "realName": "조인성",
+    "birthdate": "1981-10-10",
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 1,
+    "title": "긴급 휴강 안내",
+    "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+    "createdDate": "2025-01-16T12:29:53"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "pororo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pororo@email.com",
+        "realName": "김성우",
+        "birthdate": "1999-06-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "admin",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "admin1234@gmail.com",
+        "realName": "관리자",
+        "birthdate": "1999-01-01",
+        "authority": {
+            "authorityName": "ADMIN"
+        },
+        "createdAt": "2025-01-16",
+        "point": 500000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "pengsoo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pengsoo@email.com",
+        "realName": "백병열",
+        "birthdate": "1999-09-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 4,
+    "user": "crong",
+    "comment": "드리프트는 잘 하면 돼",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"point":5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 삭제되었습니다.",
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 추가되었습니다.",
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "subject_id": 1,
+  "old_car_type_id": 23,
+  "new_car_type_id": 24
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"image_url":"image_url1",
+"subject_id":1
+{
+"title":"1종 자동.1종 수동 면허"
+}
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/users/enrollment/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/delete/subject_types</x:t>
+  </x:si>
+  <x:si>
     <x:t>{
     "id": 3,
     "title": "안녕하세요",
@@ -323,84 +619,67 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>GET /enrollment/{user_name}/
-{subject_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 email의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get /comment/username/
-{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /notice/title/search/{title}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/email/delete/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/admin/add/subject_types</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 birthdate을 가진 회원이 존재하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 real_name을 가진 회원이 존재하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/me/delete/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 생일의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 사이에 가입하신 
-회원이 존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 사이에 가입하신 
-회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/delete/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/under/delete/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">DELETE </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/admin/notice/delete/{id}</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>PUT /api/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>update/subject_types</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
     <x:t>{
-    "userName" : "rupee",
-    "password" : "1234"
+    "id": 3,
+    "title": "삭제된 게시글입니다.",
+    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+    "author": "rupee",
+    "createdDate": "2025-01-17T11:16:05.903901",
+    "modifiedDate": "2025-01-17T12:26:02.1958855"
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "crong",
+    "comment" : "드리프트는 잘 하면 돼", 
+    "boardId" : "1"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 5,
+    "user": "crong",
+    "comment": "드리프트는 멋있지",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "user_name": "totoro",
+  "selected_subject_ids": [1, 2],
+  "use_points": 5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/over/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/user/point/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/enrollment/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/add/car-types</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/average-points
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "crong",
+    "password" : "new1234567"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/username/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/buy</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
@@ -455,139 +734,16 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>[
-{
-"subject_id" : 1
-  {
-"price":10000
-   },
-"user_name": "totoro"
-},
-{
-"subject_id" :2  
-  {
-  "price":10000
-   },
-"user_name": "totoro"
-}
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": 1234,
-    "email": "rupee@email.com",
-    "realName": "조인성",
-    "birthdate": "1981-10-10",
-}</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">{
-  "user_name": "totoro",
-  "real_name": "토토로",
-  "email": "totoro@example.com",
-  "point": 15000,
-  "enrollment_date": "2023-01-15"
+  "message": "자동차 종류가 성공적으로 추가되었습니다.",
+  "car_type_id": 23
 }
 </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">{
-  "user_name": "johndoe",
-  "real_name": "John Doe",
-  "email": "johndoe@example.com",
-  "point": 5000,
-  "enrollment_date": "2023-02-10"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 1,
-    "title": "긴급 휴강 안내",
-    "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-    "createdDate": "2025-01-16T12:29:53"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "admin",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "admin1234@gmail.com",
-        "realName": "관리자",
-        "birthdate": "1999-01-01",
-        "authority": {
-            "authorityName": "ADMIN"
-        },
-        "createdAt": "2025-01-16",
-        "point": 500000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "pororo",
-    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-    "email": "pororo@email.com",
-    "realName": "김성우",
-    "birthdate": "1999-06-09",
-    "authority": {
-        "authorityName": "USER"
-    },
-    "createdAt": "2025-01-16",
-    "point": 50000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "user": "pengsoo",
-        "comment": "ㅎㅎ",
-        "boardId": 1
-    },
-    {
-        "id": 2,
-        "user": "totoro",
-        "comment": "ㄴㄴ",
-        "boardId": 1
-    },
-    {
-        "id": 3,
-        "user": "fourbie",
-        "comment": "ㅇㅇ",
-        "boardId": 1
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "user_name": "totoro",
-  "subject_id": 1,
-  "price": 10000
-}</x:t>
-  </x:si>
-  <x:si>
     <x:r>
-      <x:t xml:space="preserve">
-</x:t>
+      <x:t>장바구니에 있는 목록을
+ 선택</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -595,292 +751,63 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">            "자동차 종류가 성공적으로 삭제되었습니다."
-</x:t>
+      <x:t xml:space="preserve"> 삭제하는 기능</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>GET /user/authority/{user_authority}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/username/update/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/birthdate/update/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 realname의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/realname/update/{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/admin/delete/subject_types</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/cart/{user_name}/
-{subject_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/realname/delete/{real_name}</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
-"user_name":"pengsoo", 
-"point":5000
+  "message": "모든 강의가 성공적으로 구매되었습니다.",
+  "total_amount": 20000,
+  "discounted_amount": 15000,
+  "used_points": 5000
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>POST/admin/user/point/{user_name}/deduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/birthdate/delete/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/authority/update/{user_authority}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/username/delete/{user_name}</x:t>
+    <x:t>{
+  "message": "선택한 강의가 성공적으로 구매되었습니다.",
+  "total_amount": 15000,
+  "discounted_amount": 10000,
+  "used_points": 5000
+}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 수정되었습니다.",
   "subject_id": 1,
-  "car_type_id": 23
+  "old_car_type_id": 23,
+  "new_car_type_id": 24
 }
 </x:t>
   </x:si>
   <x:si>
-    <x:t>{
-    "userName": "pororo",
-    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-    "email": "pororo@email.com",
-    "realName": "김성우",
-    "birthdate": "1999-06-09",
-    "authority": {
-        "authorityName": "USER"
-    },
-    "createdAt": "2025-01-15T15:54:34",
-    "point": 50000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/admin/users/enrollment</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST /api/user/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/user/point/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /enrollment/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 삭제되었습니다.",
-  "subject_id": 1,
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 추가되었습니다.",
-  "subject_id": 1,
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 3,
-    "title": "삭제된 게시글입니다.",
-    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-    "author": "rupee",
-    "createdDate": "2025-01-17T11:16:05.903901",
-    "modifiedDate": "2025-01-17T12:26:02.1958855"
-}</x:t>
+    <x:t>DELETE/api/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/point/{user_name}/use</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/subject/update/{id}</x:t>
   </x:si>
   <x:si>
     <x:t>[
     {
-        "userName": "pororo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pororo@email.com",
-        "realName": "김성우",
-        "birthdate": "1999-06-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
+        "id": 1,
+        "title": "긴급 휴강 안내",
+        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+        "createdDate": "2025-01-16T12:29:53"
     }
 ]</x:t>
   </x:si>
   <x:si>
     <x:t>{
-    "userName": "crong",
-    "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-    "email": "crong@email.com",
-    "realName": "정우성",
-    "birthdate": "1980-12-12",
-    "authority": {
-        "authorityName": "USER"
-    },
-    "createdAt": "2025-01-17",
+    "userName": "rupee",
+    "password": null,
+    "email": "rupee@email.com",
+    "realName": "조인성",
+    "birthdate": "1981-10-10",
+    "role": "User",
     "point": 10000
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "자동차 종류가 성공적으로 추가되었습니다.",
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/point/{user_name}/use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 이후에 
-가입한 회원이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 이전에 
-가입한 회원이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/comment/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /video/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /admin/add/car-types</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회
-후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/board/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /image/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/admin/users/all-points</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 해당 USER가 
-존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /subject/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두개의 지정 날짜 사이에 가입
-한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name으로 특정회원 조회 
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name으로 특정회원 조회 
-후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 내 수강신청 버튼
-클릭시 장바구니로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /subject/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"자동차 종류가 성공적으로 수정되었습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 회원 탈퇴가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 
-게시글 조회가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보의 과목이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 user_name이 존재하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 이전에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 이후에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 게시글 조회가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 작성한 게시글만 수정할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 작성한 게시글만 삭제할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저별로 장바구니에 담은 
-목록을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"해당 제목의 게시글을 찾을 수 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의가 장바구니에서 
-삭제가 완료 되었습니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 4,
-    "user": "crong",
-    "comment": "드리프트는 잘 하면 돼",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}
-</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -917,24 +844,694 @@
 ]</x:t>
   </x:si>
   <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "긴급 휴강 안내",
+        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+        "createdDate": "2025-01-16T12:29:53"
+    },
+    {
+        "id": 2,
+        "title": "새해맞이 이벤트 안내",
+        "content": "새해를 맞아 학업에 지친 수강생님들을 위해 조식 떡국 제공 이벤트를 진행 합니다.",
+        "createdDate": "2025-01-16T12:29:53"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>PUT /api/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>update/subject_types</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>특정회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 포인트를 차감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 
+구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정회원의 특정 과목 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 을 불러와 
+수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 email의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 real_name을 가진 회원이 존재하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 생일의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 사이에 가입하신 
+회원이 존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 사이에 가입하신 
+회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 birthdate을 가진 회원이 존재하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/add/subject_types</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 과목별 운행 가능 챠량 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>과목에 운행</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 불가한 자동차
+삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>과목에 운행</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 가능 자동차
+종류 추가</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의가 장바구니에 추가되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 과목별 운행 가능 챠량 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 포인트를 조회할 수 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 작성 댓글 전체선택 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 작성한 댓글 선택 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>과목에 운행</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 가능한 자동차
+수정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>user_name으로 특정회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 과목별 운행 가능 챠량 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회 후 
+수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 답글 board id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자만 등록이 가능합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 강의 중
+선택하여 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 권한이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회 후 
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회 후 
+수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 수정이 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회 후 
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜의 가입 
+회원이 없습니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회
+후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강 신청한 특정 회원의 특정 과목 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 권한이 존재 하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t>rupee 회원탈퇴가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회 
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회 후
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 삭제가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>장바구니에 있는</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 목록을 전체
+삭제하는 기능</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>가장 적은</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트를 보유 중인
+유저 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>가장 많은</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트를 보유 중인
+유저 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:t>{
-"title":"1종 자동.1종 수동 면허",
-"explanation":"1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-"price":10000,
-"instructor_name":"panda",
-"subject_type":[
-  {
-   "subject_id":1,
-   " type_id":...
-       [
-       {"name":"승용차" 등등....
-       }
-       ],
- "image_id":1
-   {
-   "image_url" : "image_url"
+"user_name":"pengsoo", 
+"user_point" : "5000"
+"Use_point": "5000"
+"message" : "포인트가 사용되었습니다"
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"deduct_point":5000
+"remaining_point":5000
+"message" : "포인트가 차감되었습니다"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-06",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>유저 평균</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>모든 유저</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "pengsoo",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53"
+    },
+    {
+        "id": 2,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "fourbie",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53"
     }
-}</x:t>
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 이후에 
+가입한 회원이 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"자동차 종류가 성공적으로 수정되었습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name으로 특정회원 조회 
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 내 수강신청 버튼
+클릭시 장바구니로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 회원 탈퇴가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두개의 지정 날짜 사이에 가입
+한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회
+후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 이전에 
+가입한 회원이 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 해당 USER가 
+존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name으로 특정회원 조회 
+후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인이 작성한 게시글만 삭제할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인이 작성한 게시글만 수정할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 
+게시글 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 이전에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"해당 제목의 게시글을 찾을 수 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 이후에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의가 장바구니에서 
+삭제가 완료 되었습니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저별로 장바구니에 담은 
+목록을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보의 과목이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 게시글 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 user_name이 존재하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 &amp; 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강사 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 차감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소  삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항에 글을 등록하는기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 을 불러와 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용이 수정되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글등록이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 의 모든 과목을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 공지사항의 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 학습내역 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원을 불러와 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습완료한 전체 수강 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 포인트가 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류를</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -972,20 +1569,7 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
+      <x:t xml:space="preserve"> 수정</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -1003,7 +1587,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>자동차 종류를</x:t>
+      <x:t>게시판 답글</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -1011,7 +1595,33 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 수정</x:t>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>장바구니 전체</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>장바구니 선택</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
     </x:r>
   </x:si>
   <x:si>
@@ -1028,72 +1638,170 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>사용자 패스워드</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 변경</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@gemail.com",
-"real_name":"백병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"백병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"박병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"김병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"백병열",
- "birthdate":"1999-09-06",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
+    <x:t>DELETE /api/video/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "pengsoo",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53",
+        "commentList": [
+            1,
+            2
+        ],
+        "commentList1": [
+            "pengsoo",
+            "totoro"
+        ],
+        "commentList2": [
+            "ㅇㅇ",
+            "ㄴㄴ"
+        ]
+    },
+    {
+        "id": 2,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "fourbie",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53",
+        "commentList": [],
+        "commentList1": [],
+        "commentList2": []
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">[
+  {
+    "user_name": "totoro",
+    "purchase_date": "2023-01-15",
+    "purchased_courses": [
+      {
+        subjectcourse_id": 1,
+        "title": "1종 수동 면허",
+        "price": 10000,
+        "quantity": 1
+      },
+      {
+        "subject_id": 2,
+        "title": "2종 보통 면허",
+        "price": 10000,
+        "quantity": 1
+      }
+    ],
+    "total_amount": 20000
+  },
+  {
+    "user_name": "johndoe",
+    "purchase_date": "2023-02-10",
+    "purchased_courses": [
+      {
+        "subject_id": 3,
+        "title": "1종 대형 면허",
+        "price": 10000,
+        "quantity": 1
+      }
+    ],
+    "total_amount": 10000
+  }
+]
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "1종 자동.1종 수동 면허",
+        "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+        "typeList": [
+            "승용차",
+            "화물차",
+            "승합차",
+            "버스",
+            "스포츠카",
+            "SUV",
+            "트럭",
+            "전기차",
+            "하이브리드차",
+            "밴승용차",
+            "15인 이하 승합차",
+            "3.5톤 이하 화물차",
+            "소형 트레일러",
+            "4륜 이륜차",
+            "10톤 이상 대형 화물차",
+            "대형 버스 (승객 16인 이상)",
+            "특수 차량 (크레인, 불도저 등)",
+            "4륜 이륜차 (125cc 이하)",
+            "3.5톤 이하 화물차",
+            "9인 이하 승합차",
+            "소형 트레일러",
+            "경형 자동차 (일반적으로 660cc 이하)"
+        ],
+        "price": 10000.0,
+        "instructorName": "정강철"
+    },
+    {
+        "id": 2,
+        "title": "2종 보통 면허",
+        "explanation": "2종 보통면허는 승용차, 15인 이하 승합차, 3.5톤 이하 화물차 등을 운전할 수 있는 면허입니다.",
+        "typeList": [
+            "승용차",
+            "화물차",
+            "승합차",
+            "스포츠카",
+            "SUV",
+            "트럭",
+            "전기차",
+            "하이브리드차",
+            "밴승용차",
+            "15인 이하 승합차",
+            "3.5톤 이하 화물차",
+            "소형 트레일러",
+            "4륜 이륜차",
+            "3.5톤 이하 화물차",
+            "9인 이하 승합차",
+            "소형 트레일러",
+            "경형 자동차 (일반적으로 660cc 이하)"
+        ],
+        "price": 10000.0,
+        "instructorName": "정강철"
+    },
+    {
+        "id": 3,
+        "title": "1종 대형 면허",
+        "explanation": "1종 대형면허는 10톤 이상 대형 화물차 및 버스 등 대형 차량을 운전할 수 있는 면허입니다.",
+        "typeList": [
+            "화물차",
+            "승합차",
+            "버스",
+            "트럭",
+            "10톤 이상 대형 화물차",
+            "대형 버스 (승객 16인 이상)",
+            "특수 차량 (크레인, 불도저 등)"
+        ],
+        "price": 10000.0,
+        "instructorName": "남재우"
+    },
+    {
+        "id": 4,
+        "title": "2종 소형 면허",
+        "explanation": "2종 소형면허는 4륜 이륜차와 3톤 이하 화물차, 9인 이하 승합차 등을 운전할 수 있는 면허입니다.",
+        "typeList": [
+            "경형 자동차 (일반적으로 660cc 이하)",
+            "소형 트레일러",
+            "4륜 이륜차",
+            "4륜 이륜차 (125cc 이하)",
+            "소형 트레일러"
+        ],
+        "price": 10000.0,
+        "instructorName": "남재우"
+    }
+]</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">[
@@ -1185,268 +1893,130 @@
  </x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t xml:space="preserve">POST </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/subject/add</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>과목에 운행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 불가한 자동차
-삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>과목에 운행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 가능한 자동차
-수정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>과목에 운행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 가능 자동차
-종류 추가</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회 후 
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회 후 
-수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/over/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 답글 board id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/under/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 있는 강의 
-전체 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 
-삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 내용을 생성 합니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 사용자의 게시글이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 공지사항이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글의 답글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 공지사항을 
-보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"해당 공지사항이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /subject/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 작성 게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 수강 신청을 조회하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시판의 답글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 영상이 등록 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/comment/add</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>가장 적은</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트를 보유 중인
-유저 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>D</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>ELETE/cart/delete/all</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>가장 많은</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트를 보유 중인
-유저 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>장바구니에 있는</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 목록을 전체
-삭제하는 기능</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">POST </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>/admin/notice/add</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "긴급 휴강 안내",
-        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-        "createdDate": "2025-01-16T12:29:53"
-    },
-    {
-        "id": 2,
-        "title": "새해맞이 이벤트 안내",
-        "content": "새해를 맞아 학업에 지친 수강생님들을 위해 조식 떡국 제공 이벤트를 진행 합니다.",
-        "createdDate": "2025-01-16T12:29:53"
-    }
-]</x:t>
+    <x:t>PUT/user/update/password/{id}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">{
-  "subject_id": 1,
-  "old_car_type_id": 23,
-  "new_car_type_id": 24
+  "average_points": 10000
 }
 </x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"image_url":"image_url1",
-"subject_id":1
-{
-"title":"1종 자동.1종 수동 면허"
+    <x:t xml:space="preserve">{
+  "car_type_name": "사이버트럭"
 }
-}</x:t>
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "car_type_name": "전기트럭"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 선택 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 패스워드 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 이미지 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 포인트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 전체 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">특정 회원 조회 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 회원을 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 강의 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 삭제</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -1458,535 +2028,6 @@
 }
 }
 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 권한이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자만 등록이 가능합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/email/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /video/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 있는 강의 중
-선택하여 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rupee 회원탈퇴가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /board/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /board/login/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회 후 
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /cart/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회 
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /image/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 달린 댓글을 모두 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 등록이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /comment/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목별 강의 동영상 자료 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 생성이 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name으로 특정회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/board/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의가 장바구니에 추가되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /comment/update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/email/update/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT/user/update/password/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/under/update/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/cart/{user_name}/checkout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/over/update/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /user/update/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /admin/user/most-points
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/birthdate/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "car_type_name": "사이버트럭"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /admin/user/average-points
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /user/over/delete/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "average_points": 10000
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /admin/user/least-points
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/username/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "car_type_name": "전기트럭"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/realname/{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회 후
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 삭제가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/date/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회 후 
-수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회
-후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /user/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get/comment/board/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 수정이 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 권한이 존재 하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜의 가입 
-회원이 없습니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"user_point" : "5000"
-"Use_point": "5000"
-"message" : "포인트가 사용되었습니다"
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"deduct_point":5000
-"remaining_point":5000
-"message" : "포인트가 차감되었습니다"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 &amp; 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 차감</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>강사 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>장바구니에 있는 목록을
- 선택</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제하는 기능</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>P</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>OST/cart/{user_name}/buy</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>장바구니 전체</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>장바구니 선택</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>POST /cart/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /video/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 포인트를 차감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 모두 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정이 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>유저 평균</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>모든 유저</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 이미지 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">특정 회원 조회 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 전체 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 포인트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 회원을 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 강의 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 패스워드 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 포인트 사용</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -2089,112 +2130,6 @@
 ]</x:t>
   </x:si>
   <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "1종 자동.1종 수동 면허",
-        "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-        "typeList": [
-            "승용차",
-            "화물차",
-            "승합차",
-            "버스",
-            "스포츠카",
-            "SUV",
-            "트럭",
-            "전기차",
-            "하이브리드차",
-            "밴승용차",
-            "15인 이하 승합차",
-            "3.5톤 이하 화물차",
-            "소형 트레일러",
-            "4륜 이륜차",
-            "10톤 이상 대형 화물차",
-            "대형 버스 (승객 16인 이상)",
-            "특수 차량 (크레인, 불도저 등)",
-            "4륜 이륜차 (125cc 이하)",
-            "3.5톤 이하 화물차",
-            "9인 이하 승합차",
-            "소형 트레일러",
-            "경형 자동차 (일반적으로 660cc 이하)"
-        ],
-        "price": 10000.0,
-        "instructorName": "정강철"
-    },
-    {
-        "id": 2,
-        "title": "2종 보통 면허",
-        "explanation": "2종 보통면허는 승용차, 15인 이하 승합차, 3.5톤 이하 화물차 등을 운전할 수 있는 면허입니다.",
-        "typeList": [
-            "승용차",
-            "화물차",
-            "승합차",
-            "스포츠카",
-            "SUV",
-            "트럭",
-            "전기차",
-            "하이브리드차",
-            "밴승용차",
-            "15인 이하 승합차",
-            "3.5톤 이하 화물차",
-            "소형 트레일러",
-            "4륜 이륜차",
-            "3.5톤 이하 화물차",
-            "9인 이하 승합차",
-            "소형 트레일러",
-            "경형 자동차 (일반적으로 660cc 이하)"
-        ],
-        "price": 10000.0,
-        "instructorName": "정강철"
-    },
-    {
-        "id": 3,
-        "title": "1종 대형 면허",
-        "explanation": "1종 대형면허는 10톤 이상 대형 화물차 및 버스 등 대형 차량을 운전할 수 있는 면허입니다.",
-        "typeList": [
-            "화물차",
-            "승합차",
-            "버스",
-            "트럭",
-            "10톤 이상 대형 화물차",
-            "대형 버스 (승객 16인 이상)",
-            "특수 차량 (크레인, 불도저 등)"
-        ],
-        "price": 10000.0,
-        "instructorName": "남재우"
-    },
-    {
-        "id": 4,
-        "title": "2종 소형 면허",
-        "explanation": "2종 소형면허는 4륜 이륜차와 3톤 이하 화물차, 9인 이하 승합차 등을 운전할 수 있는 면허입니다.",
-        "typeList": [
-            "경형 자동차 (일반적으로 660cc 이하)",
-            "소형 트레일러",
-            "4륜 이륜차",
-            "4륜 이륜차 (125cc 이하)",
-            "소형 트레일러"
-        ],
-        "price": 10000.0,
-        "instructorName": "남재우"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 선택 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/admin/users/enrollment/{user_name}</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
     "id": 1,
     "title": "1종 자동.1종 수동 면허",
@@ -2228,80 +2163,9 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "pengsoo",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53",
-        "commentList": [
-            1,
-            2
-        ],
-        "commentList1": [
-            "pengsoo",
-            "totoro"
-        ],
-        "commentList2": [
-            "ㅇㅇ",
-            "ㄴㄴ"
-        ]
-    },
-    {
-        "id": 2,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "fourbie",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53",
-        "commentList": [],
-        "commentList1": [],
-        "commentList2": []
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">[
-  {
-    "user_name": "totoro",
-    "purchase_date": "2023-01-15",
-    "purchased_courses": [
-      {
-        subjectcourse_id": 1,
-        "title": "1종 수동 면허",
-        "price": 10000,
-        "quantity": 1
-      },
-      {
-        "subject_id": 2,
-        "title": "2종 보통 면허",
-        "price": 10000,
-        "quantity": 1
-      }
-    ],
-    "total_amount": 20000
-  },
-  {
-    "user_name": "johndoe",
-    "purchase_date": "2023-02-10",
-    "purchased_courses": [
-      {
-        "subject_id": 3,
-        "title": "1종 대형 면허",
-        "price": 10000,
-        "quantity": 1
-      }
-    ],
-    "total_amount": 10000
-  }
-]
+    <x:r>
+      <x:t xml:space="preserve">
 </x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">PUT </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2309,12 +2173,13 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>/admin/notice/update/{id}</x:t>
+      <x:t xml:space="preserve">            "자동차 종류가 성공적으로 삭제되었습니다."
+</x:t>
     </x:r>
   </x:si>
   <x:si>
     <x:r>
-      <x:t>P</x:t>
+      <x:t>사용자 패스워드</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -2322,49 +2187,104 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>OST/cart/{user_name}/buy-all</x:t>
+      <x:t xml:space="preserve"> 변경</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">POST /api/user/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강 신청한 특정 회원의 특정 과목 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /comment/{user_name}/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 과목별 운행 가능 챠량 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 과목별 운행 가능 챠량 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 작성한 댓글 선택 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 포인트를 조회할 수 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 과목별 운행 가능 챠량 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 작성 댓글 전체선택 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 을 불러와 
-수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 
-구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정회원의 특정 과목 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 조회</x:t>
+    <x:t>POST/api/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/most-points
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/{user_name}/completed-subjects</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/authority/delete/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/comment/update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/users/enrollment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/subject/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/notice/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/admin/user/point/{user_name}/deduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/username/delete/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/enrollment/{user_name}/
+{subject_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/cart/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/users/all-points</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/notice/title/search/{title}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/email/delete/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/under/delete/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get /api/comment/username/
+{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/me/delete/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/delete/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/notice/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/comment/{user_name}/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/image/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/checkout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/over/update/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/under/update/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/realname/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/email/update/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/over/delete/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get/api/comment/board/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/user/logout</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2624,7 +2544,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2707,7 +2626,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2742,7 +2660,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2787,7 +2704,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2831,7 +2747,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2916,7 +2831,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2937,7 +2851,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2968,7 +2881,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3336,8 +3248,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:H99"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A85" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H44" activeCellId="0" sqref="H44:H44"/>
+    <x:sheetView tabSelected="1" topLeftCell="A89" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D90" activeCellId="0" sqref="D90:XFD91"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -3353,774 +3265,774 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="3" t="s">
-        <x:v>226</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>224</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>292</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>329</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F1" s="3" t="s">
-        <x:v>356</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="G1" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
-        <x:v>304</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A2" s="24" t="s">
-        <x:v>294</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>298</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C2" s="14" t="s">
         <x:v>335</x:v>
       </x:c>
       <x:c r="D2" s="14" t="s">
-        <x:v>102</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E2" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F2" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G2" s="11" t="s">
-        <x:v>222</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H2" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A3" s="24"/>
       <x:c r="B3" s="9" t="s">
-        <x:v>291</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>270</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D3" s="14" t="s">
-        <x:v>365</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E3" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F3" s="14" t="s">
-        <x:v>27</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G3" s="11" t="s">
-        <x:v>180</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H3" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A4" s="24"/>
       <x:c r="B4" s="9" t="s">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C4" s="9" t="s">
-        <x:v>247</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D4" s="10" t="s">
-        <x:v>187</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E4" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F4" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="G4" s="11"/>
       <x:c r="H4" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A5" s="24"/>
       <x:c r="B5" s="9" t="s">
-        <x:v>349</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D5" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E5" s="10"/>
       <x:c r="F5" s="11" t="s">
-        <x:v>165</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>124</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H5" s="15"/>
     </x:row>
     <x:row r="6" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A6" s="24"/>
       <x:c r="B6" s="9" t="s">
-        <x:v>159</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>346</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="D6" s="14" t="s">
-        <x:v>253</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E6" s="9" t="s">
-        <x:v>43</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>110</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G6" s="9" t="s">
-        <x:v>132</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H6" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A7" s="24"/>
       <x:c r="B7" s="9" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C7" s="9" t="s">
-        <x:v>339</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="D7" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E7" s="16"/>
       <x:c r="F7" s="10" t="s">
-        <x:v>223</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G7" s="16"/>
       <x:c r="H7" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A8" s="25"/>
       <x:c r="B8" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>243</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D8" s="17" t="s">
-        <x:v>265</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E8" s="17"/>
       <x:c r="F8" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G8" s="9" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H8" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A9" s="25"/>
       <x:c r="B9" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C9" s="17" t="s">
-        <x:v>25</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D9" s="17" t="s">
-        <x:v>217</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E9" s="17"/>
       <x:c r="F9" s="9" t="s">
-        <x:v>82</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G9" s="9" t="s">
-        <x:v>58</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H9" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A10" s="25"/>
       <x:c r="B10" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C10" s="17" t="s">
-        <x:v>248</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D10" s="17" t="s">
-        <x:v>267</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E10" s="17"/>
       <x:c r="F10" s="9" t="s">
-        <x:v>109</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G10" s="9" t="s">
-        <x:v>89</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H10" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A11" s="25"/>
       <x:c r="B11" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C11" s="17" t="s">
-        <x:v>250</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D11" s="17" t="s">
-        <x:v>259</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E11" s="17"/>
       <x:c r="F11" s="9" t="s">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G11" s="9" t="s">
-        <x:v>66</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="H11" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A12" s="25"/>
       <x:c r="B12" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C12" s="17" t="s">
-        <x:v>175</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D12" s="17" t="s">
-        <x:v>86</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="17"/>
       <x:c r="F12" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G12" s="9" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="H12" s="15" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="H12" s="15" t="s">
-        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A13" s="25"/>
       <x:c r="B13" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C13" s="9" t="s">
-        <x:v>249</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D13" s="17" t="s">
-        <x:v>174</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E13" s="17"/>
       <x:c r="F13" s="9" t="s">
-        <x:v>353</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="G13" s="9" t="s">
-        <x:v>137</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H13" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A14" s="25"/>
       <x:c r="B14" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C14" s="9" t="s">
-        <x:v>193</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="17" t="s">
-        <x:v>181</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E14" s="17"/>
       <x:c r="F14" s="9" t="s">
-        <x:v>353</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="G14" s="9" t="s">
-        <x:v>136</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="H14" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A15" s="25"/>
       <x:c r="B15" s="17" t="s">
-        <x:v>338</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C15" s="17" t="s">
-        <x:v>238</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D15" s="17" t="s">
-        <x:v>271</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E15" s="17"/>
       <x:c r="F15" s="9" t="s">
-        <x:v>353</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="G15" s="9" t="s">
-        <x:v>144</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H15" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A16" s="25"/>
       <x:c r="B16" s="17" t="s">
-        <x:v>334</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C16" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D16" s="17" t="s">
-        <x:v>277</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="9" t="s">
-        <x:v>353</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="G16" s="9" t="s">
-        <x:v>68</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H16" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A17" s="24"/>
       <x:c r="B17" s="9" t="s">
-        <x:v>350</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C17" s="9" t="s">
-        <x:v>18</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D17" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E17" s="10"/>
       <x:c r="F17" s="9" t="s">
-        <x:v>209</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A18" s="24"/>
       <x:c r="B18" s="9" t="s">
-        <x:v>342</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C18" s="9" t="s">
-        <x:v>32</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D18" s="14" t="s">
-        <x:v>195</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E18" s="14"/>
       <x:c r="F18" s="13" t="s">
-        <x:v>354</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="G18" s="9"/>
       <x:c r="H18" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A19" s="24"/>
       <x:c r="B19" s="9" t="s">
-        <x:v>301</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C19" s="14" t="s">
-        <x:v>317</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D19" s="14" t="s">
-        <x:v>197</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E19" s="14"/>
       <x:c r="F19" s="11" t="s">
-        <x:v>360</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="G19" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H19" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A20" s="24"/>
       <x:c r="B20" s="10" t="s">
-        <x:v>341</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C20" s="10" t="s">
-        <x:v>316</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D20" s="10" t="s">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="10"/>
       <x:c r="F20" s="13" t="s">
-        <x:v>147</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G20" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H20" s="15"/>
     </x:row>
     <x:row r="21" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A21" s="24"/>
       <x:c r="B21" s="9" t="s">
-        <x:v>303</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C21" s="9" t="s">
-        <x:v>241</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D21" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E21" s="14"/>
       <x:c r="F21" s="9" t="s">
-        <x:v>79</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G21" s="16" t="s">
-        <x:v>194</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H21" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A22" s="24"/>
       <x:c r="B22" s="10" t="s">
-        <x:v>305</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C22" s="13" t="s">
-        <x:v>191</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D22" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E22" s="10"/>
       <x:c r="F22" s="13" t="s">
-        <x:v>5</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G22" s="13" t="s">
-        <x:v>189</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H22" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A23" s="24"/>
       <x:c r="B23" s="9" t="s">
-        <x:v>351</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C23" s="9" t="s">
-        <x:v>179</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D23" s="16" t="s">
-        <x:v>34</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="10"/>
       <x:c r="F23" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G23" s="13"/>
       <x:c r="H23" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A24" s="24"/>
       <x:c r="B24" s="9" t="s">
-        <x:v>295</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C24" s="9" t="s">
-        <x:v>246</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D24" s="14" t="s">
-        <x:v>244</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E24" s="10"/>
       <x:c r="F24" s="9" t="s">
-        <x:v>361</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G24" s="13" t="s">
-        <x:v>142</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="H24" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A25" s="24"/>
       <x:c r="B25" s="9" t="s">
-        <x:v>290</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C25" s="9" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D25" s="14" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E25" s="9" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F25" s="13" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="G25" s="13" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="D25" s="14" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E25" s="9" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F25" s="13" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G25" s="13" t="s">
-        <x:v>215</x:v>
-      </x:c>
       <x:c r="H25" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A26" s="24"/>
       <x:c r="B26" s="9" t="s">
-        <x:v>286</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C26" s="9" t="s">
-        <x:v>216</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D26" s="14" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E26" s="10"/>
       <x:c r="F26" s="9" t="s">
-        <x:v>108</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G26" s="13" t="s">
-        <x:v>140</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="H26" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A27" s="24"/>
       <x:c r="B27" s="9" t="s">
-        <x:v>296</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C27" s="9" t="s">
-        <x:v>170</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D27" s="16" t="s">
-        <x:v>227</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F27" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G27" s="13" t="s">
-        <x:v>139</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H27" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A28" s="24"/>
       <x:c r="B28" s="9" t="s">
-        <x:v>198</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C28" s="9" t="s">
-        <x:v>221</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D28" s="16" t="s">
-        <x:v>229</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E28" s="10"/>
       <x:c r="F28" s="9" t="s">
-        <x:v>150</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G28" s="13" t="s">
-        <x:v>188</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H28" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A29" s="24"/>
       <x:c r="B29" s="9" t="s">
-        <x:v>320</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C29" s="9" t="s">
-        <x:v>235</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D29" s="16" t="s">
-        <x:v>237</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="10"/>
       <x:c r="F29" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="9" t="s">
-        <x:v>133</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="H29" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A30" s="24"/>
       <x:c r="B30" s="9" t="s">
-        <x:v>192</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C30" s="9" t="s">
-        <x:v>184</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D30" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E30" s="10"/>
       <x:c r="F30" s="9" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G30" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H30" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A31" s="24"/>
       <x:c r="B31" s="9" t="s">
-        <x:v>38</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C31" s="9" t="s">
-        <x:v>178</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D31" s="9" t="s">
-        <x:v>278</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E31" s="10"/>
       <x:c r="F31" s="9" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G31" s="9" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H31" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A32" s="24"/>
       <x:c r="B32" s="9" t="s">
-        <x:v>348</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C32" s="9" t="s">
-        <x:v>190</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D32" s="14" t="s">
-        <x:v>203</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E32" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F32" s="13" t="s">
-        <x:v>146</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G32" s="11" t="s">
-        <x:v>269</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H32" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A33" s="24"/>
       <x:c r="B33" s="9" t="s">
-        <x:v>310</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="C33" s="9" t="s">
-        <x:v>231</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D33" s="14" t="s">
-        <x:v>116</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E33" s="10"/>
       <x:c r="F33" s="9" t="s">
-        <x:v>37</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G33" s="13" t="s">
-        <x:v>269</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H33" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A34" s="24"/>
       <x:c r="B34" s="9" t="s">
-        <x:v>340</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C34" s="9" t="s">
-        <x:v>200</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D34" s="16" t="s">
-        <x:v>251</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="E34" s="13" t="s">
-        <x:v>148</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F34" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G34" s="13" t="s">
-        <x:v>279</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H34" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A35" s="24"/>
       <x:c r="B35" s="9" t="s">
-        <x:v>373</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C35" s="9" t="s">
-        <x:v>370</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D35" s="16" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E35" s="10"/>
       <x:c r="F35" s="16" t="s">
-        <x:v>14</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G35" s="13"/>
       <x:c r="H35" s="15"/>
@@ -4128,39 +4040,39 @@
     <x:row r="36" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A36" s="24"/>
       <x:c r="B36" s="14" t="s">
-        <x:v>288</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C36" s="13" t="s">
-        <x:v>141</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D36" s="14" t="s">
-        <x:v>232</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E36" s="14"/>
       <x:c r="F36" s="9" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G36" s="11" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H36" s="15"/>
     </x:row>
     <x:row r="37" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A37" s="24"/>
       <x:c r="B37" s="9" t="s">
-        <x:v>289</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C37" s="9" t="s">
-        <x:v>129</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D37" s="14" t="s">
-        <x:v>313</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E37" s="13" t="s">
-        <x:v>84</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F37" s="9" t="s">
-        <x:v>245</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G37" s="11"/>
       <x:c r="H37" s="15"/>
@@ -4168,17 +4080,17 @@
     <x:row r="38" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A38" s="24"/>
       <x:c r="B38" s="9" t="s">
-        <x:v>311</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C38" s="9" t="s">
-        <x:v>207</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D38" s="14" t="s">
-        <x:v>205</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E38" s="10"/>
       <x:c r="F38" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G38" s="11"/>
       <x:c r="H38" s="15"/>
@@ -4186,61 +4098,61 @@
     <x:row r="39" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A39" s="24"/>
       <x:c r="B39" s="9" t="s">
-        <x:v>336</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C39" s="9" t="s">
-        <x:v>182</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D39" s="14" t="s">
-        <x:v>364</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E39" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F39" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G39" s="11" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H39" s="15"/>
     </x:row>
     <x:row r="40" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A40" s="24"/>
       <x:c r="B40" s="9" t="s">
-        <x:v>355</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="C40" s="9" t="s">
-        <x:v>219</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D40" s="14" t="s">
-        <x:v>309</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E40" s="13" t="s">
-        <x:v>45</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F40" s="9" t="s">
-        <x:v>48</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G40" s="11" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H40" s="15"/>
     </x:row>
     <x:row r="41" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A41" s="24"/>
       <x:c r="B41" s="14" t="s">
-        <x:v>312</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C41" s="13" t="s">
-        <x:v>308</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D41" s="9" t="s">
-        <x:v>92</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E41" s="10"/>
       <x:c r="F41" s="13" t="s">
-        <x:v>143</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G41" s="11"/>
       <x:c r="H41" s="15"/>
@@ -4248,125 +4160,125 @@
     <x:row r="42" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A42" s="24"/>
       <x:c r="B42" s="9" t="s">
-        <x:v>299</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C42" s="13" t="s">
-        <x:v>119</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D42" s="14" t="s">
-        <x:v>255</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E42" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F42" s="14" t="s">
-        <x:v>284</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G42" s="18" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H42" s="15"/>
     </x:row>
     <x:row r="43" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A43" s="24"/>
       <x:c r="B43" s="9" t="s">
-        <x:v>177</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C43" s="13" t="s">
-        <x:v>199</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D43" s="14" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E43" s="14"/>
       <x:c r="F43" s="9" t="s">
-        <x:v>149</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G43" s="18"/>
       <x:c r="H43" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A44" s="24"/>
       <x:c r="B44" s="9" t="s">
-        <x:v>366</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C44" s="13" t="s">
-        <x:v>376</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D44" s="9" t="s">
-        <x:v>57</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E44" s="14"/>
       <x:c r="F44" s="9" t="s">
-        <x:v>149</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G44" s="18"/>
       <x:c r="H44" s="15" t="s">
-        <x:v>225</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A45" s="26"/>
       <x:c r="B45" s="19" t="s">
-        <x:v>377</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C45" s="20" t="s">
-        <x:v>0</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D45" s="20" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E45" s="20"/>
       <x:c r="F45" s="21" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G45" s="22" t="s">
-        <x:v>371</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H45" s="15"/>
     </x:row>
     <x:row r="46" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A46" s="26"/>
       <x:c r="B46" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C46" s="20" t="s">
-        <x:v>352</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D46" s="20" t="s">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E46" s="23" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F46" s="21" t="s">
-        <x:v>282</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G46" s="22" t="s">
-        <x:v>12</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="H46" s="15"/>
     </x:row>
     <x:row r="47" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A47" s="24" t="s">
-        <x:v>302</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B47" s="9" t="s">
-        <x:v>297</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C47" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D47" s="10" t="s">
-        <x:v>166</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E47" s="13" t="s">
-        <x:v>151</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F47" s="11" t="s">
-        <x:v>240</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G47" s="11"/>
       <x:c r="H47" s="15"/>
@@ -4374,61 +4286,61 @@
     <x:row r="48" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A48" s="24"/>
       <x:c r="B48" s="9" t="s">
-        <x:v>324</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C48" s="10" t="s">
-        <x:v>327</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D48" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E48" s="11" t="s">
-        <x:v>151</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F48" s="13" t="s">
-        <x:v>23</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G48" s="11" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H48" s="15"/>
     </x:row>
     <x:row r="49" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A49" s="24"/>
       <x:c r="B49" s="9" t="s">
-        <x:v>358</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C49" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D49" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E49" s="10"/>
       <x:c r="F49" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G49" s="11" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H49" s="15"/>
     </x:row>
     <x:row r="50" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A50" s="24"/>
       <x:c r="B50" s="10" t="s">
-        <x:v>345</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C50" s="13" t="s">
-        <x:v>239</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D50" s="10" t="s">
-        <x:v>314</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E50" s="13" t="s">
-        <x:v>145</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F50" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G50" s="11"/>
       <x:c r="H50" s="15"/>
@@ -4436,61 +4348,61 @@
     <x:row r="51" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A51" s="24"/>
       <x:c r="B51" s="10" t="s">
-        <x:v>326</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C51" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D51" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E51" s="13" t="s">
-        <x:v>212</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F51" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G51" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H51" s="15"/>
     </x:row>
     <x:row r="52" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A52" s="24"/>
       <x:c r="B52" s="10" t="s">
-        <x:v>343</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C52" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D52" s="10" t="s">
-        <x:v>117</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E52" s="10"/>
       <x:c r="F52" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G52" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H52" s="15"/>
     </x:row>
     <x:row r="53" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A53" s="24"/>
       <x:c r="B53" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C53" s="10" t="s">
-        <x:v>328</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="D53" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E53" s="13" t="s">
-        <x:v>53</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F53" s="10" t="s">
-        <x:v>236</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G53" s="13"/>
       <x:c r="H53" s="15"/>
@@ -4498,61 +4410,61 @@
     <x:row r="54" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A54" s="24"/>
       <x:c r="B54" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C54" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D54" s="10" t="s">
-        <x:v>122</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E54" s="10"/>
       <x:c r="F54" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="G54" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H54" s="15"/>
     </x:row>
     <x:row r="55" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A55" s="24"/>
       <x:c r="B55" s="10" t="s">
-        <x:v>344</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C55" s="10" t="s">
-        <x:v>306</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D55" s="10" t="s">
-        <x:v>234</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="E55" s="13" t="s">
-        <x:v>211</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F55" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G55" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H55" s="15"/>
     </x:row>
     <x:row r="56" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A56" s="24" t="s">
-        <x:v>287</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B56" s="14" t="s">
-        <x:v>357</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C56" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D56" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E56" s="10"/>
       <x:c r="F56" s="9" t="s">
-        <x:v>362</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G56" s="10"/>
       <x:c r="H56" s="15"/>
@@ -4560,17 +4472,17 @@
     <x:row r="57" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A57" s="24"/>
       <x:c r="B57" s="14" t="s">
-        <x:v>315</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C57" s="9" t="s">
-        <x:v>375</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D57" s="14" t="s">
-        <x:v>359</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E57" s="10"/>
       <x:c r="F57" s="9" t="s">
-        <x:v>55</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G57" s="10"/>
       <x:c r="H57" s="15"/>
@@ -4578,39 +4490,39 @@
     <x:row r="58" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A58" s="24"/>
       <x:c r="B58" s="9" t="s">
-        <x:v>300</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C58" s="10" t="s">
-        <x:v>318</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D58" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E58" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F58" s="11" t="s">
-        <x:v>283</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G58" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="H58" s="15"/>
     </x:row>
     <x:row r="59" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A59" s="24"/>
       <x:c r="B59" s="10" t="s">
-        <x:v>337</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C59" s="13" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D59" s="13" t="s">
-        <x:v>258</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E59" s="10"/>
       <x:c r="F59" s="13" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G59" s="10"/>
       <x:c r="H59" s="15"/>
@@ -4618,17 +4530,17 @@
     <x:row r="60" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A60" s="24"/>
       <x:c r="B60" s="10" t="s">
-        <x:v>158</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C60" s="13" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D60" s="13" t="s">
-        <x:v>264</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E60" s="10"/>
       <x:c r="F60" s="13" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G60" s="10"/>
       <x:c r="H60" s="15"/>
@@ -4636,17 +4548,17 @@
     <x:row r="61" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A61" s="24"/>
       <x:c r="B61" s="10" t="s">
-        <x:v>322</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C61" s="10" t="s">
-        <x:v>322</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D61" s="13" t="s">
-        <x:v>261</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E61" s="10"/>
       <x:c r="F61" s="13" t="s">
-        <x:v>263</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="G61" s="10"/>
       <x:c r="H61" s="15"/>
@@ -4654,17 +4566,17 @@
     <x:row r="62" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A62" s="24"/>
       <x:c r="B62" s="9" t="s">
-        <x:v>323</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C62" s="9" t="s">
-        <x:v>323</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D62" s="9" t="s">
-        <x:v>123</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E62" s="14"/>
       <x:c r="F62" s="13" t="s">
-        <x:v>74</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G62" s="9"/>
       <x:c r="H62" s="15"/>
@@ -4672,17 +4584,17 @@
     <x:row r="63" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A63" s="24"/>
       <x:c r="B63" s="9" t="s">
-        <x:v>22</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C63" s="16" t="s">
-        <x:v>13</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D63" s="16" t="s">
-        <x:v>52</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E63" s="10"/>
       <x:c r="F63" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G63" s="11"/>
       <x:c r="H63" s="15"/>
@@ -4690,61 +4602,61 @@
     <x:row r="64" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A64" s="24"/>
       <x:c r="B64" s="10" t="s">
-        <x:v>347</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C64" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>208</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E64" s="13" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F64" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G64" s="11" t="s">
-        <x:v>242</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H64" s="15"/>
     </x:row>
     <x:row r="65" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A65" s="24"/>
       <x:c r="B65" s="10" t="s">
-        <x:v>330</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C65" s="13" t="s">
-        <x:v>185</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D65" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E65" s="10"/>
       <x:c r="F65" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G65" s="13" t="s">
-        <x:v>273</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="H65" s="15"/>
     </x:row>
     <x:row r="66" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A66" s="24"/>
       <x:c r="B66" s="10" t="s">
-        <x:v>285</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C66" s="13" t="s">
-        <x:v>183</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D66" s="10" t="s">
-        <x:v>363</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E66" s="13" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F66" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="G66" s="13"/>
       <x:c r="H66" s="15"/>
@@ -4752,19 +4664,19 @@
     <x:row r="67" spans="1:8" s="5" customFormat="1" ht="273" customHeight="1">
       <x:c r="A67" s="24"/>
       <x:c r="B67" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C67" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D67" s="10" t="s">
-        <x:v>118</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E67" s="13" t="s">
-        <x:v>266</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F67" s="13" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G67" s="10"/>
       <x:c r="H67" s="15"/>
@@ -4772,17 +4684,17 @@
     <x:row r="68" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A68" s="24"/>
       <x:c r="B68" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C68" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D68" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E68" s="10"/>
       <x:c r="F68" s="13" t="s">
-        <x:v>85</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="G68" s="10"/>
       <x:c r="H68" s="15"/>
@@ -4790,19 +4702,19 @@
     <x:row r="69" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A69" s="24"/>
       <x:c r="B69" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C69" s="10" t="s">
-        <x:v>157</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D69" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E69" s="13" t="s">
-        <x:v>260</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F69" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G69" s="10"/>
       <x:c r="H69" s="15"/>
@@ -4810,19 +4722,19 @@
     <x:row r="70" spans="1:8" s="5" customFormat="1" ht="248.25" customHeight="1">
       <x:c r="A70" s="24"/>
       <x:c r="B70" s="13" t="s">
-        <x:v>169</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C70" s="13" t="s">
-        <x:v>368</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D70" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E70" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F70" s="13" t="s">
-        <x:v>107</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G70" s="10"/>
       <x:c r="H70" s="15"/>
@@ -4830,19 +4742,19 @@
     <x:row r="71" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A71" s="24"/>
       <x:c r="B71" s="13" t="s">
-        <x:v>167</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C71" s="13" t="s">
-        <x:v>372</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D71" s="10" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E71" s="13" t="s">
-        <x:v>99</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F71" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G71" s="10"/>
       <x:c r="H71" s="15"/>
@@ -4850,19 +4762,19 @@
     <x:row r="72" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A72" s="24"/>
       <x:c r="B72" s="13" t="s">
-        <x:v>168</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C72" s="13" t="s">
-        <x:v>369</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D72" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E72" s="13" t="s">
-        <x:v>210</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F72" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G72" s="10"/>
       <x:c r="H72" s="15"/>
@@ -4870,61 +4782,61 @@
     <x:row r="73" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A73" s="24"/>
       <x:c r="B73" s="13" t="s">
-        <x:v>374</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C73" s="9" t="s">
-        <x:v>127</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D73" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E73" s="9" t="s">
-        <x:v>162</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F73" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G73" s="9" t="s">
-        <x:v>135</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H73" s="15"/>
     </x:row>
     <x:row r="74" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A74" s="24"/>
       <x:c r="B74" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C74" s="9" t="s">
-        <x:v>128</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D74" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E74" s="9"/>
       <x:c r="F74" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G74" s="9" t="s">
-        <x:v>135</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H74" s="15"/>
     </x:row>
     <x:row r="75" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A75" s="24"/>
       <x:c r="B75" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C75" s="9" t="s">
-        <x:v>233</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D75" s="10" t="s">
-        <x:v>252</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E75" s="9" t="s">
-        <x:v>160</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F75" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G75" s="9"/>
       <x:c r="H75" s="15"/>
@@ -4932,17 +4844,17 @@
     <x:row r="76" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A76" s="24"/>
       <x:c r="B76" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C76" s="9" t="s">
-        <x:v>268</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D76" s="10" t="s">
-        <x:v>61</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="E76" s="10"/>
       <x:c r="F76" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G76" s="9"/>
       <x:c r="H76" s="15"/>
@@ -4950,294 +4862,294 @@
     <x:row r="77" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A77" s="24"/>
       <x:c r="B77" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C77" s="9" t="s">
-        <x:v>173</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D77" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E77" s="9" t="s">
-        <x:v>163</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F77" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G77" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H77" s="15"/>
     </x:row>
     <x:row r="78" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A78" s="24"/>
       <x:c r="B78" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C78" s="9" t="s">
-        <x:v>172</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D78" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E78" s="10"/>
       <x:c r="F78" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G78" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H78" s="15"/>
     </x:row>
     <x:row r="79" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A79" s="24"/>
       <x:c r="B79" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C79" s="9" t="s">
-        <x:v>272</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D79" s="10" t="s">
-        <x:v>88</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E79" s="9" t="s">
-        <x:v>164</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F79" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G79" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H79" s="15"/>
     </x:row>
     <x:row r="80" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A80" s="24"/>
       <x:c r="B80" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C80" s="9" t="s">
-        <x:v>230</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D80" s="10" t="s">
-        <x:v>96</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E80" s="10"/>
       <x:c r="F80" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G80" s="9" t="s">
-        <x:v>63</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H80" s="15"/>
     </x:row>
     <x:row r="81" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A81" s="24"/>
       <x:c r="B81" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C81" s="9" t="s">
-        <x:v>113</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D81" s="10" t="s">
-        <x:v>97</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E81" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F81" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G81" s="9" t="s">
-        <x:v>280</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H81" s="15"/>
     </x:row>
     <x:row r="82" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A82" s="24"/>
       <x:c r="B82" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C82" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D82" s="10" t="s">
-        <x:v>54</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E82" s="10"/>
       <x:c r="F82" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G82" s="9" t="s">
-        <x:v>280</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H82" s="15"/>
     </x:row>
     <x:row r="83" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A83" s="24"/>
       <x:c r="B83" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C83" s="9" t="s">
-        <x:v>220</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D83" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E83" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F83" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G83" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H83" s="15"/>
     </x:row>
     <x:row r="84" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A84" s="24"/>
       <x:c r="B84" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C84" s="9" t="s">
-        <x:v>228</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D84" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E84" s="10"/>
       <x:c r="F84" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G84" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H84" s="15"/>
     </x:row>
     <x:row r="85" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A85" s="24"/>
       <x:c r="B85" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C85" s="9" t="s">
-        <x:v>275</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D85" s="10" t="s">
-        <x:v>254</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="E85" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F85" s="9" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G85" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H85" s="15"/>
     </x:row>
     <x:row r="86" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A86" s="24"/>
       <x:c r="B86" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C86" s="9" t="s">
-        <x:v>213</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D86" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E86" s="10"/>
       <x:c r="F86" s="9" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G86" s="9" t="s">
-        <x:v>115</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H86" s="15"/>
     </x:row>
     <x:row r="87" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A87" s="24"/>
       <x:c r="B87" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C87" s="9" t="s">
-        <x:v>276</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D87" s="10" t="s">
-        <x:v>202</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E87" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F87" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G87" s="9" t="s">
-        <x:v>281</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H87" s="15"/>
     </x:row>
     <x:row r="88" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A88" s="24"/>
       <x:c r="B88" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C88" s="9" t="s">
-        <x:v>274</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D88" s="10" t="s">
-        <x:v>196</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E88" s="10"/>
       <x:c r="F88" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G88" s="9" t="s">
-        <x:v>281</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="H88" s="15"/>
     </x:row>
     <x:row r="89" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A89" s="24"/>
       <x:c r="B89" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C89" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D89" s="10" t="s">
-        <x:v>257</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E89" s="9" t="s">
-        <x:v>161</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F89" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G89" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H89" s="15"/>
     </x:row>
     <x:row r="90" spans="1:8" s="5" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A90" s="24"/>
       <x:c r="B90" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C90" s="9" t="s">
-        <x:v>126</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D90" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E90" s="10"/>
       <x:c r="F90" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="G90" s="9" t="s">
-        <x:v>67</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H90" s="15"/>
     </x:row>

--- a/문서/API(99).xlsx
+++ b/문서/API(99).xlsx
@@ -19,7 +19,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="393">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="395">
+  <x:si>
+    <x:t>{
+    "id": 4,
+    "title": "안녕 못합니다..",
+    "content": "안녕 안합니다. 다들 새해복 많이 받으세요",
+    "author": "rupee",
+    "createdDate": "2025-01-17T11:19:55.261156",
+    "modifiedDate": "2025-01-17T12:50:33.8958901"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "user_name": "totoro",
+  "purchase_date": "2023-01-15",
+  "purchased_courses": [
+    {
+      "course_id": 1,
+      "title": "1종 수동 면허",
+      "price": 10000,
+      "quantity": 1
+    },
+    {
+      "course_id": 2,
+      "title": "2종 보통 면허",
+      "price": 10000,
+      "quantity": 1
+    }
+  ],
+  "total_amount": 20000
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 2,
+        "user": "totoro",
+        "comment": "ㄴㄴ",
+        "boardId": 1
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "username": "totoro",
+        "subjectName": "1종 대형 면허",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "crong",
+    "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+    "email": "crong@email.com",
+    "realName": "정우성",
+    "birthdate": "1980-12-12",
+    "authority": null,
+    "createdAt": "2025-01-17",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 3,
+    "title": "오전 휴강",
+    "content": "차량 정검으로 인해 오전은 휴강을 하게 되었습니다.",
+    "createdDate": "2025-01-21T09:39:06.5256491"
+}</x:t>
+  </x:si>
   <x:si>
     <x:t>{
     "id": 3,
@@ -29,197 +100,210 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>GET /api/notice/title/search/{title}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/delete/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/admin/notice/delete/{id}</x:t>
+    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
+ { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 3,
+    "title": "오후 휴강",
+    "content": "차량 정검으로 인해 오후는 휴강을 하게 되었습니다.",
+    "createdDate": "2025-01-21T09:40:46.849074"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "user_name": "totoro",
+  "use_points": 5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/delete/car-types/{car_type_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/authority/delete/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/{user_name}/
+completed-subjects</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "user_name": "totoro",
+  "selected_subject_ids": [1, 2],
+  "use_points": 5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "crong",
+    "comment" : "드리프트는 잘 하면 돼", 
+    "boardId" : "1"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 5,
+    "user": "crong",
+    "comment": "드리프트는 멋있지",
+    "boardId": 1
+}</x:t>
   </x:si>
   <x:si>
     <x:t>[
     {
-        "userName": "admin",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "admin1234@gmail.com",
-        "realName": "관리자",
-        "birthdate": "1999-01-01",
+        "userName": "crong",
+        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+        "email": "crong@email.com",
+        "realName": "정우성",
+        "birthdate": "1980-12-12",
         "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 900000
-    },
-    {
-        "userName": "eddie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "eddie@email.com",
-        "realName": "남재우",
-        "birthdate": "1995-09-21",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 19000
-    },
-    {
-        "userName": "fourbie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "fourbie@email.com",
-        "realName": "정길수",
-        "birthdate": "1999-06-06",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 30000
-    },
-    {
-        "userName": "panda",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "panda@email.com",
-        "realName": "정강철",
-        "birthdate": "1994-11-11",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 17000
-    },
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": null,
-        "createdAt": "2025-01-16",
+        "createdAt": "2025-01-17",
         "point": 10000
-    },
-    {
-        "userName": "pororo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pororo@email.com",
-        "realName": "김성우",
-        "birthdate": "1999-06-09",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 15000
-    },
-    {
-        "userName": "rupee",
-        "password": "$2a$10$UbaqVVI.IyZgEhmkYPO24uQiVKcOyx33hBxoBJeMT2w7Ku6J2o34m",
-        "email": "rupee@email.com",
-        "realName": "조인성",
-        "birthdate": "1981-10-10",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 10000
-    },
-    {
-        "userName": "totoro",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "totoro@email.com",
-        "realName": "강준우",
-        "birthdate": "1999-05-24",
-        "authority": null,
-        "createdAt": "2025-01-16",
-        "point": 20000
     }
 ]</x:t>
   </x:si>
   <x:si>
     <x:t>[
     {
-        "userName": "admin",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "admin1234@gmail.com",
-        "realName": "관리자",
-        "birthdate": "1999-01-01",
-        "authority": {
-            "authorityName": "ADMIN"
-        },
-        "createdAt": "2025-01-16",
-        "point": 500000
+        "id": 1,
+        "user": "pengsoo",
+        "comment": "ㅎㅎ",
+        "boardId": 1
     },
     {
-        "userName": "eddie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "eddie@email.com",
-        "realName": "남재우",
-        "birthdate": "1995-09-21",
-        "authority": {
-            "authorityName": "INSTRUCTOR"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
+        "id": 2,
+        "user": "totoro",
+        "comment": "ㄴㄴ",
+        "boardId": 1
     },
     {
-        "userName": "fourbie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "fourbie@email.com",
-        "realName": "정길수",
-        "birthdate": "1999-06-06",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "panda",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "panda@email.com",
-        "realName": "정강철",
-        "birthdate": "1994-11-11",
-        "authority": {
-            "authorityName": "INSTRUCTOR"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "pororo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pororo@email.com",
-        "realName": "김성우",
-        "birthdate": "1999-06-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "rupee",
-        "password": "$2a$10$TX2q4TVs1bGVfTgGyzTp0O2eCXUkW8XakfRSHe/ow5PVApMy8FSwS",
-        "email": "rupee@email.com",
-        "realName": "조인성",
-        "birthdate": "1981-10-10",
-        "authority": {
-            "authorityName": "User"
-        },
-        "createdAt": "2025-01-16",
-        "point": 10000
-    },
-    {
-        "userName": "totoro",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "totoro@email.com",
-        "realName": "강준우",
-        "birthdate": "1999-05-24",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
+        "id": 3,
+        "user": "fourbie",
+        "comment": "ㅇㅇ",
+        "boardId": 1
     }
 ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 3,
+    "title": "안녕하세요",
+    "content": "안녕하세요 저는 김똥깨 입니다.",
+    "author": "rupee",
+    "createdDate": "2025-01-17T11:16:05.9039012",
+    "modifiedDate": "2025-01-17T11:16:05.9039012"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/image/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "crong",
+    "password" : "new1234567"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 3,
+    "title": "삭제된 게시글입니다.",
+    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+    "author": "rupee",
+    "createdDate": "2025-01-17T11:16:05.903901",
+    "modifiedDate": "2025-01-17T12:26:02.1958855"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 13,
+    "title": "1종 수동",
+    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "typeList": [],
+    "price": 15000.0,
+    "instructorName": "정우성"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 수정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류를</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 수정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류를</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 추가</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류를</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -249,7 +333,7 @@
   </x:si>
   <x:si>
     <x:r>
-      <x:t>게시판 답글</x:t>
+      <x:t>자동차 종류</x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -257,36 +341,76 @@
         <x:sz val="15"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
+      <x:t xml:space="preserve"> 추가</x:t>
     </x:r>
   </x:si>
   <x:si>
-    <x:t>DELETE /api/user/email/delete/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/admin/delete/subject_types</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
-    "id": 4,
-    "title": "안녕 못합니다..",
-    "content": "안녕 안합니다. 다들 새해복 많이 받으세요",
-    "author": "rupee",
-    "createdDate": "2025-01-17T11:19:55.261156",
-    "modifiedDate": "2025-01-17T12:50:33.8958901"
+    "userName": "crong",
+    "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+    "email": "crong@email.com",
+    "realName": "정우성",
+    "birthdate": "1980-12-12",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-17",
+    "point": 10000
 }</x:t>
   </x:si>
   <x:si>
+    <x:t>{
+    "userName" : "rupee",
+    "password" : "1234"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "subject_id": 1,
+  "old_car_type_id": 23,
+  "new_car_type_id": 24
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"image_url":"image_url1",
+"subject_id":1
+{
+"title":"1종 자동.1종 수동 면허"
+}
+}</x:t>
+  </x:si>
+  <x:si>
     <x:t>[
     {
-        "userName": "crong",
-        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-        "email": "crong@email.com",
-        "realName": "정우성",
-        "birthdate": "1980-12-12",
+        "username": "fourbie",
+        "subjectName": "1종 자동.1종 수동 면허",
+        "price": 10000.0
+    },
+    {
+        "username": "pororo",
+        "subjectName": "2종 보통 면허",
+        "price": 10000.0
+    },
+    {
+        "username": "totoro",
+        "subjectName": "1종 대형 면허",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "admin",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "admin1234@gmail.com",
+        "realName": "관리자",
+        "birthdate": "1999-01-01",
         "authority": null,
-        "createdAt": "2025-01-17",
-        "point": 10000
+        "createdAt": "2025-01-16",
+        "point": 900000
     }
 ]</x:t>
   </x:si>
@@ -305,76 +429,90 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "user": "pengsoo",
-        "comment": "ㅎㅎ",
-        "boardId": 1
-    },
-    {
-        "id": 2,
-        "user": "totoro",
-        "comment": "ㄴㄴ",
-        "boardId": 1
-    },
-    {
-        "id": 3,
-        "user": "fourbie",
-        "comment": "ㅇㅇ",
-        "boardId": 1
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 2,
-        "user": "totoro",
-        "comment": "ㄴㄴ",
-        "boardId": 1
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "username": "totoro",
-        "subjectName": "1종 대형 면허",
-        "price": 10000.0
-    }
-]</x:t>
+    <x:t>"입력하신 realname의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/delete/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/under/delete/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/notice/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">
+</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">            "자동차 종류가 성공적으로 삭제되었습니다."
+</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/notice/title/search/{title}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/delete/subject_types</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get /api/comment/username/
+{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/me/delete/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/email/delete/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/users/enrollment/{user_name}</x:t>
   </x:si>
   <x:si>
     <x:t>{
-    "id": 3,
-    "title": "오전 휴강",
-    "content": "차량 정검으로 인해 오전은 휴강을 하게 되었습니다.",
-    "createdDate": "2025-01-21T09:39:06.5256491"
+"user_name":"pengsoo", 
+"point":5000
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
- { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/{user_name}/
-completed-subjects</x:t>
+    <x:t>GET /api/user/authority/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/realname/update/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/cart/{user_name}/
+{subject_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/birthdate/update/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">api/user/add?username=crong&amp;subjectId=1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
   </x:si>
   <x:si>
     <x:t>{
-  "user_name": "totoro",
-  "use_points": 5000
+    "title" : "1종 수동",
+    "explanation" : "1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "price" : "14000"
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>DELETE /api/admin/delete/car-types/{car_type_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/authority/delete/{user_authority}</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 수정되었습니다.",
   "subject_id": 1,
   "old_car_type_id": 23,
   "new_car_type_id": 24
@@ -383,12 +521,519 @@
   </x:si>
   <x:si>
     <x:t>{
+  "message": "선택한 강의가 성공적으로 구매되었습니다.",
+  "total_amount": 15000,
+  "discounted_amount": 10000,
+  "used_points": 5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+  "message": "모든 강의가 성공적으로 구매되었습니다.",
+  "total_amount": 20000,
+  "discounted_amount": 15000,
+  "used_points": 5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "subjectName": "2종 보통 면허",
+        "username": "totoro",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 13,
+    "title": "1종 수동",
+    "explanation": "1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "typeList": [],
+    "price": 14000.0,
+    "instructorName": "정우성"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 1,
+    "title": "긴급 휴강 안내",
+    "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+    "createdDate": "2025-01-16T12:29:53"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "user_name": "totoro",
+  "real_name": "토토로",
+  "email": "totoro@example.com",
+  "point": 15000,
+  "enrollment_date": "2023-01-15"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": 1234,
+    "email": "rupee@email.com",
+    "realName": "조인성",
+    "birthdate": "1981-10-10"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "admin",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "admin1234@gmail.com",
+        "realName": "관리자",
+        "birthdate": "1999-01-01",
+        "authority": {
+            "authorityName": "ADMIN"
+        },
+        "createdAt": "2025-01-16",
+        "point": 500000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "ERROR": "본인의 정보만 조회할 수 있습니다."
+}
+"로그인한 사용자만 포인트 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/authority/update/{user_authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/birthdate/delete/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/admin/user/point/{user_name}/deduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/admin/update/car-types/{car_type_id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
 "image_url":"image_url1",
 "subject_id":1
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/realname/delete/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>모든 유저</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>유저 평균</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 추가되었습니다.",
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "message": "과목과 자동차 종류의 연결이 성공적으로 삭제되었습니다.",
+  "subject_id": 1,
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원을 불러와 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습완료한 전체 수강 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 수강신청 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/update/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 birthdate을 가진 회원이 존재하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/checkout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/over/delete/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/buy-all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 사이에 가입하신 
+회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 email의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/username/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/over/update/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/realname/{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 장바구니에 과목을 삭제할 수 있습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/add/subject_types</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/admin/notice/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/birthdate/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 사이에 가입하신 
+회원이 존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/under/update/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 real_name을 가진 회원이 존재하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/most-points
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 장바구니에 과목을 추가할 수 있습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>PUT /api/admin/</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>update/subject_types</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>강의 의 모든 과목을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 학습내역 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 포인트가 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "message": "자동차 종류가 성공적으로 추가되었습니다.",
+  "car_type_id": 23
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "user": "crong",
+    "comment": "드리프트는 멋있지",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+    "title":"오후 휴강",
+    "content":"차량 정검으로 인해 오후는 휴강을 하게 되었습니다."
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+    "title":"오전 휴강",
+    "content":"차량 정검으로 인해 오전은 휴강을 하게 되었습니다."
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"fourbie",
+"subject_id":1
+ "purchase_time":"10:00:00
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/email/update/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 생일의 정보를 가진 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@gemail.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-06",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"백병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id" : "5",
+    "title" : "1종 수동",
+    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "price" : "15000"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"email":"pengsoo@email.com",
+"real_name":"김병열",
+ "birthdate":"1999-09-09",
+ "user_authority":"USER", 
+"created_at":now,
+"point":500000
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 공지사항의 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 
+구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 
+내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소  삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 4,
+    "user": "crong",
+    "comment": "드리프트는 잘 하면 돼",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
 {
-"title":"1종 자동.1종 수동 면허"
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
 }
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 장바구니 목록 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 을 불러와 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항에 글을 등록하는기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 
+내용을 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 포인트를 차감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 
+내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get/api/comment/board/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 강의를 생성할 수 있습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api//admin/user/last</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 해당 USER가 
+존재하지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 이전에 
+가입한 회원이 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"자동차 종류가 성공적으로 수정되었습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/under/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인이 작성한 게시글만 삭제할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/over/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/date/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/video/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/login/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 목록을
+ 선택 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 회원 탈퇴가 가능합니다."</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -402,100 +1047,551 @@
 </x:t>
   </x:si>
   <x:si>
+    <x:t>[
+    {
+        "userName": "pororo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pororo@email.com",
+        "realName": "김성우",
+        "birthdate": "1999-06-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "pengsoo",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53"
+    },
+    {
+        "id": 2,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "fourbie",
+        "createdDate": "2025-01-16T12:29:53",
+        "modifiedDate": "2025-01-16T12:29:53"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회 후 
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회
+후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/board/search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 많은 포인트를 
+보유 중인
+유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/comment/update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>api/cart/user/totoro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜의 가입 
+회원이 없습니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 강의 중
+선택하여 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/enrollment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 적은 포인트를 
+보유 중인
+유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회 후
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/most</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/user/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 답글 board id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 권한이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rupee 회원탈퇴가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email으로 특정회원 조회 
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 수정이 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/comment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/subject/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회 후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회 후 
+수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 권한이 존재 하지 
+않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회 후 
+수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회
+후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 삭제가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회 후 
+삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회 후 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자만 등록이 가능합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 이미지 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 패스워드 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 강의 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저 포인트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">특정 회원 조회 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 회원을 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 전체 구매</x:t>
+  </x:si>
+  <x:si>
     <x:t>{
-    "id": 3,
-    "title": "안녕하세요",
-    "content": "안녕하세요 저는 김똥깨 입니다.",
-    "author": "rupee",
-    "createdDate": "2025-01-17T11:16:05.9039012",
-    "modifiedDate": "2025-01-17T11:16:05.9039012"
+    "id": 4,
+    "subjectName": "1종 자동.1종 수동 면허",
+    "username": "crong",
+    "price": 10000.0
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>"해당 공지사항이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시판의 답글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/notice/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"존재하지 않는 과목입니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 등록이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 과목별 운행 가능 챠량 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의가 성공적으로 삭제되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 수강 신청을 조회하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
+    <x:t>{
+"user_name":"pengsoo", 
+"user_point" : "5000"
+"Use_point": "5000"
+"message" : "포인트가 사용되었습니다"
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"deduct_point":5000
+"remaining_point":5000
+"message" : "포인트가 차감되었습니다"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 3,
+        "title": "삭제된 게시글입니다.",
+        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+        "author": "rupee",
+        "createdDate": "2025-01-17T11:16:05.903901",
+        "modifiedDate": "2025-01-17T12:26:02.195886"
+    },
+    {
+        "id": 4,
+        "title": "삭제된 게시글입니다.",
+        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+        "author": "rupee",
+        "createdDate": "2025-01-17T11:19:55.261156",
+        "modifiedDate": "2025-01-17T13:25:02.532181"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 장바구니 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_authority으로 회원 조회
+후 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 날짜 이후에 
+가입한 회원이 없습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저별로 장바구니에 담은 
+목록을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"해당 유저는 수강신청을 하지 않았습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"해당 제목의 게시글을 찾을 수 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 게시글 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 이전에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/board/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 강의를 삭제할 수 있습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보의 과목이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/email/{email}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 내 수강신청 버튼
+클릭시 장바구니로 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/first</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/least
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인이 작성한 게시글만 수정할 수 있습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/cart/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 이후에 가입한 회원이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"로그인한 사용자만 
+게시글 조회가 가능합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>두개의 지정 날짜 사이에 가입
+한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/image/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 공지사항을 
+보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글의 답글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name으로 특정회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트가 가장 많은 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 과목별 운행 가능 챠량 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/cart/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 최근 가입한
+ 유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/video/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목 ID로 수강신청 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
 회원조회</x:t>
   </x:si>
   <x:si>
-    <x:t>장바구니에 있는 강의 
-전체 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 작성 게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/board/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 영상이 등록 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name으로 특정회원 조회</x:t>
+    <x:t>수강 신청한 특정 회원의 과목 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목별 강의 동영상 자료 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 달린 댓글을 모두 조회</x:t>
   </x:si>
   <x:si>
     <x:t>GET /api/notice/all</x:t>
   </x:si>
   <x:si>
+    <x:t>가장 먼저 가입한 
+유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 사용자의 게시글이 없습니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>"입력하신 공지사항이 없습니다."</x:t>
   </x:si>
   <x:si>
-    <x:t>게시판의 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목별 강의 동영상 자료 등록</x:t>
+    <x:t>해당 공지사항을 
+삭제하는 기능</x:t>
   </x:si>
   <x:si>
     <x:t>POST /api/video/add</x:t>
   </x:si>
   <x:si>
-    <x:t>GET /api/video/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 ID로 수강신청 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 달린 댓글을 모두 조회</x:t>
-  </x:si>
-  <x:si>
     <x:t>특정 과목별 운행 가능 챠량 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 과목별 운행 가능 챠량 추가</x:t>
+    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/image/add</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>과목에 운행</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 가능한 자동차
+수정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/cart/add</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -512,60 +1608,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 포인트를 조회할 수 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 사용자의 게시글이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 공지사항을 
-보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 
-삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/image/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글의 답글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강 신청한 특정 회원의 과목 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트가 가장 많은 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/cart/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 먼저 가입한 
-유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 최근 가입한
- 유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/board/all</x:t>
+    <x:t>"로그인 후 이용 가능합니다."</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -582,159 +1625,117 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>과목에 운행</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 가능한 자동차
-수정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/cart/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "pengsoo",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53"
-    },
-    {
-        "id": 2,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "fourbie",
-        "createdDate": "2025-01-16T12:29:53",
-        "modifiedDate": "2025-01-16T12:29:53"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "user_name": "totoro",
-  "selected_subject_ids": [1, 2],
-  "use_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 5,
-    "user": "crong",
-    "comment": "드리프트는 멋있지",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName" : "crong",
-    "comment" : "드리프트는 잘 하면 돼", 
-    "boardId" : "1"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName" : "crong",
-    "password" : "new1234567"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/authority/{user_authority}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/users/enrollment/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/realname/update/{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">api/user/add?username=crong&amp;subjectId=1 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/api/cart/{user_name}/
-{subject_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/birthdate/update/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"point":5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "subject_id": 1,
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 삭제되었습니다.",
-  "subject_id": 1,
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 추가되었습니다.",
-  "subject_id": 1,
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "자동차 종류가 성공적으로 추가되었습니다.",
-  "car_type_id": 23
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "pororo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pororo@email.com",
-        "realName": "김성우",
-        "birthdate": "1999-06-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    }
-]</x:t>
+    <x:t>사용자 작성 게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에 있는 강의 
+전체 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 수강 신청을 조회하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/notice/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 과목별 운행 가능 챠량 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상이 등록 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의가 성공적으로 삭제되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 게시판의 답글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 등록이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"존재하지 않는 과목입니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"해당 공지사항이 없습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강사 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 &amp; 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 차감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -744,489 +1745,39 @@
         "email": "admin1234@gmail.com",
         "realName": "관리자",
         "birthdate": "1999-01-01",
-        "authority": {
-            "authorityName": "ADMIN"
-        },
+        "authority": null,
         "createdAt": "2025-01-16",
-        "point": 500000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "crong",
-    "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-    "email": "crong@email.com",
-    "realName": "정우성",
-    "birthdate": "1980-12-12",
-    "authority": {
-        "authorityName": "USER"
+        "point": 900000
     },
-    "createdAt": "2025-01-17",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "user_name": "totoro",
-  "real_name": "토토로",
-  "email": "totoro@example.com",
-  "point": 15000,
-  "enrollment_date": "2023-01-15"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 1,
-    "title": "긴급 휴강 안내",
-    "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-    "createdDate": "2025-01-16T12:29:53"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": 1234,
-    "email": "rupee@email.com",
-    "realName": "조인성",
-    "birthdate": "1981-10-10"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "title" : "1종 수동",
-    "explanation" : "1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "price" : "14000"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "message": "과목과 자동차 종류의 연결이 성공적으로 수정되었습니다.",
-  "subject_id": 1,
-  "old_car_type_id": 23,
-  "new_car_type_id": 24
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "message": "선택한 강의가 성공적으로 구매되었습니다.",
-  "total_amount": 15000,
-  "discounted_amount": 10000,
-  "used_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-  "message": "모든 강의가 성공적으로 구매되었습니다.",
-  "total_amount": 20000,
-  "discounted_amount": 15000,
-  "used_points": 5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/birthdate/delete/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "subjectName": "2종 보통 면허",
-        "username": "totoro",
-        "price": 10000.0
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "user_name": "totoro",
-  "purchase_date": "2023-01-15",
-  "purchased_courses": [
-    {
-      "course_id": 1,
-      "title": "1종 수동 면허",
-      "price": 10000,
-      "quantity": 1
+    {
+        "userName": "eddie",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "eddie@email.com",
+        "realName": "남재우",
+        "birthdate": "1995-09-21",
+        "authority": null,
+        "createdAt": "2025-01-16",
+        "point": 19000
     },
     {
-      "course_id": 2,
-      "title": "2종 보통 면허",
-      "price": 10000,
-      "quantity": 1
-    }
-  ],
-  "total_amount": 20000
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"image_url":"image_url1",
-"subject_id":1
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/realname/delete/{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/admin/user/point/{user_name}/deduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/admin/update/car-types/{car_type_id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/authority/update/{user_authority}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/me/delete/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get /api/comment/username/
-{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 3,
-    "title": "오후 휴강",
-    "content": "차량 정검으로 인해 오후는 휴강을 하게 되었습니다.",
-    "createdDate": "2025-01-21T09:40:46.849074"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 3,
-    "title": "삭제된 게시글입니다.",
-    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-    "author": "rupee",
-    "createdDate": "2025-01-17T11:16:05.903901",
-    "modifiedDate": "2025-01-17T12:26:02.1958855"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 13,
-    "title": "1종 수동",
-    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "typeList": [],
-    "price": 15000.0,
-    "instructorName": "정우성"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 13,
-    "title": "1종 수동",
-    "explanation": "1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "typeList": [],
-    "price": 14000.0,
-    "instructorName": "정우성"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 4,
-    "user": "crong",
-    "comment": "드리프트는 잘 하면 돼",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 모두 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 
-내용을 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 장바구니 목록 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 
-내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "pororo",
-    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-    "email": "pororo@email.com",
-    "realName": "김성우",
-    "birthdate": "1999-06-09",
-    "authority": {
-        "authorityName": "USER"
+        "userName": "fourbie",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "fourbie@email.com",
+        "realName": "정길수",
+        "birthdate": "1999-06-06",
+        "authority": null,
+        "createdAt": "2025-01-16",
+        "point": 30000
     },
-    "createdAt": "2025-01-15T15:54:34",
-    "point": 50000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 회원을 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저 포인트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 전체 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">특정 회원 조회 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 이미지 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 패스워드 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 강의 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName" : "rupee",
-    "password" : "1234"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 을 불러와 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정이 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항에 글을 등록하는기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 포인트를 차감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 
-내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 
-구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소  삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "user": "crong",
-    "comment": "드리프트는 멋있지",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"fourbie",
-"subject_id":1
- "purchase_time":"10:00:00
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-    "title":"오전 휴강",
-    "content":"차량 정검으로 인해 오전은 휴강을 하게 되었습니다."
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id" : "5",
-    "title" : "1종 수동",
-    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "price" : "15000"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"백병열",
- "birthdate":"1999-09-06",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@gemail.com",
-"real_name":"백병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"김병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"email":"pengsoo@email.com",
-"real_name":"백병열",
- "birthdate":"1999-09-09",
- "user_authority":"USER", 
-"created_at":now,
-"point":500000
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-    "title":"오후 휴강",
-    "content":"차량 정검으로 인해 오후는 휴강을 하게 되었습니다."
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "crong",
-        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-        "email": "crong@email.com",
-        "realName": "정우성",
-        "birthdate": "1980-12-12",
+    {
+        "userName": "panda",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "panda@email.com",
+        "realName": "정강철",
+        "birthdate": "1994-11-11",
         "authority": null,
-        "createdAt": "2025-01-17",
-        "point": 10000
+        "createdAt": "2025-01-16",
+        "point": 17000
     },
     {
         "userName": "pengsoo",
@@ -1239,6 +1790,16 @@
         "point": 10000
     },
     {
+        "userName": "pororo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pororo@email.com",
+        "realName": "김성우",
+        "birthdate": "1999-06-09",
+        "authority": null,
+        "createdAt": "2025-01-16",
+        "point": 15000
+    },
+    {
         "userName": "rupee",
         "password": "$2a$10$UbaqVVI.IyZgEhmkYPO24uQiVKcOyx33hBxoBJeMT2w7Ku6J2o34m",
         "email": "rupee@email.com",
@@ -1247,31 +1808,18 @@
         "authority": null,
         "createdAt": "2025-01-16",
         "point": 10000
+    },
+    {
+        "userName": "totoro",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "totoro@email.com",
+        "realName": "강준우",
+        "birthdate": "1999-05-24",
+        "authority": null,
+        "createdAt": "2025-01-16",
+        "point": 20000
     }
 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 3,
-        "title": "삭제된 게시글입니다.",
-        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-        "author": "rupee",
-        "createdDate": "2025-01-17T11:16:05.903901",
-        "modifiedDate": "2025-01-17T12:26:02.195886"
-    },
-    {
-        "id": 4,
-        "title": "삭제된 게시글입니다.",
-        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-        "author": "rupee",
-        "createdDate": "2025-01-17T11:19:55.261156",
-        "modifiedDate": "2025-01-17T13:25:02.532181"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 유저 조회</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1287,631 +1835,56 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 공지사항의 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
+    <x:t>회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 선택 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 내역 조회</x:t>
   </x:si>
   <x:si>
     <x:t>[
     {
-        "userName": "admin",
+        "userName": "crong",
+        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+        "email": "crong@email.com",
+        "realName": "정우성",
+        "birthdate": "1980-12-12",
+        "authority": null,
+        "createdAt": "2025-01-17",
+        "point": 10000
+    },
+    {
+        "userName": "pengsoo",
         "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "admin1234@gmail.com",
-        "realName": "관리자",
-        "birthdate": "1999-01-01",
+        "email": "pengsoo@email.com",
+        "realName": "백병열",
+        "birthdate": "1999-09-09",
         "authority": null,
         "createdAt": "2025-01-16",
-        "point": 900000
+        "point": 10000
+    },
+    {
+        "userName": "rupee",
+        "password": "$2a$10$UbaqVVI.IyZgEhmkYPO24uQiVKcOyx33hBxoBJeMT2w7Ku6J2o34m",
+        "email": "rupee@email.com",
+        "realName": "조인성",
+        "birthdate": "1981-10-10",
+        "authority": null,
+        "createdAt": "2025-01-16",
+        "point": 10000
     }
 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 있는 강의 중
-선택하여 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회 
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회 후
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜의 가입 
-회원이 없습니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST /api/user/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 수정이 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 권한이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rupee 회원탈퇴가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/email/update/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 생일의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 장바구니에 과목을 삭제할 수 있습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/birthdate/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/admin/add/subject_types</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/username/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 birthdate을 가진 회원이 존재하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/admin/notice/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>PUT /api/admin/</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>update/subject_types</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/update/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 real_name을 가진 회원이 존재하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 장바구니에 과목을 추가할 수 있습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/realname/{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 사이에 가입하신 
-회원이 존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/over/update/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/under/update/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/cart/{user_name}/checkout</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /api/admin/user/most-points
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 사이에 가입하신 
-회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/cart/{user_name}/buy-all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 email의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/over/delete/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 의 모든 과목을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email으로 특정회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 학습내역 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 게시글의 달린 답글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 적은 포인트를 
-보유 중인
-유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회 후 
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/comment/update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>api/cart/user/totoro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/enrollment/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회
-후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/most</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/board/search</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/user/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/comment/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 많은 포인트를 
-보유 중인
-유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 답글 board id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자만 등록이 가능합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 삭제가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 권한이 존재 하지 
-않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/subject/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/api/comment/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/image/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강사 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 &amp; 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 차감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/subject/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/comment/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회 후 
-수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회 후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회 후 
-수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회 후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회 후 
-삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 포인트가 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 수강신청 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학습완료한 전체 수강 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원을 불러와 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 작성한 게시글만 수정할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 이후에 
-가입한 회원이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"해당 제목의 게시글을 찾을 수 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보의 과목이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 게시글 조회가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/email/{email}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저별로 장바구니에 담은 
-목록을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"해당 유저는 수강신청을 하지 않았습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목 내 수강신청 버튼
-클릭시 장바구니로 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/board/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/first</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/admin/notice/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 
-게시글 조회가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회
-후 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 강의를 삭제할 수 있습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 이전에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/cart/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 이후에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /api/admin/user/least
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST /api/user/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t>두개의 지정 날짜 사이에 가입
-한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 장바구니 조회가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/image/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_authority으로 회원 조회
-후 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 회원 탈퇴가 가능합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get/api/comment/board/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"deduct_point":5000
-"remaining_point":5000
-"message" : "포인트가 차감되었습니다"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 4,
-    "subjectName": "1종 자동.1종 수동 면허",
-    "username": "crong",
-    "price": 10000.0
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"user_point" : "5000"
-"Use_point": "5000"
-"message" : "포인트가 사용되었습니다"
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "username": "fourbie",
-        "subjectName": "1종 자동.1종 수동 면허",
-        "price": 10000.0
-    },
-    {
-        "username": "pororo",
-        "subjectName": "2종 보통 면허",
-        "price": 10000.0
-    },
-    {
-        "username": "totoro",
-        "subjectName": "1종 대형 면허",
-        "price": 10000.0
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 선택 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "subjectName": "2종 보통 면허",
-        "username": "totoro",
-        "price": 10000.0
-    },
-    {
-        "id": 2,
-        "subjectName": "1종 자동.1종 수동 면허",
-        "username": "pengsoo",
-        "price": 10000.0
-    },
-    {
-        "id": 3,
-        "subjectName": "1종 대형 면허",
-        "username": "pororo",
-        "price": 10000.0
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": null,
-    "email": "rupee@email.com",
-    "realName": "조인성",
-    "birthdate": "1981-10-10",
-    "role": "User",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "긴급 휴강 안내",
-        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-        "createdDate": "2025-01-16T12:29:53"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"로그인한 사용자만 강의를 생성할 수 있습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/date/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 해당 USER가 
-존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에 있는 목록을
- 선택 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 날짜 이전에 
-가입한 회원이 없습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api//admin/user/last</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"자동차 종류가 성공적으로 수정되었습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/over/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/under/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/video/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/board/login/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜에 가입한 회원이 없습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 작성한 게시글만 삭제할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">[
@@ -1969,6 +1942,229 @@
   <x:si>
     <x:t>[
     {
+        "userName": "admin",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "admin1234@gmail.com",
+        "realName": "관리자",
+        "birthdate": "1999-01-01",
+        "authority": {
+            "authorityName": "ADMIN"
+        },
+        "createdAt": "2025-01-16",
+        "point": 500000
+    },
+    {
+        "userName": "eddie",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "eddie@email.com",
+        "realName": "남재우",
+        "birthdate": "1995-09-21",
+        "authority": {
+            "authorityName": "INSTRUCTOR"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    },
+    {
+        "userName": "fourbie",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "fourbie@email.com",
+        "realName": "정길수",
+        "birthdate": "1999-06-06",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    },
+    {
+        "userName": "panda",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "panda@email.com",
+        "realName": "정강철",
+        "birthdate": "1994-11-11",
+        "authority": {
+            "authorityName": "INSTRUCTOR"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    },
+    {
+        "userName": "pengsoo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pengsoo@email.com",
+        "realName": "백병열",
+        "birthdate": "1999-09-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    },
+    {
+        "userName": "pororo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pororo@email.com",
+        "realName": "김성우",
+        "birthdate": "1999-06-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    },
+    {
+        "userName": "rupee",
+        "password": "$2a$10$TX2q4TVs1bGVfTgGyzTp0O2eCXUkW8XakfRSHe/ow5PVApMy8FSwS",
+        "email": "rupee@email.com",
+        "realName": "조인성",
+        "birthdate": "1981-10-10",
+        "authority": {
+            "authorityName": "User"
+        },
+        "createdAt": "2025-01-16",
+        "point": 10000
+    },
+    {
+        "userName": "totoro",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "totoro@email.com",
+        "realName": "강준우",
+        "birthdate": "1999-05-24",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "pengsoo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pengsoo@email.com",
+        "realName": "백병열",
+        "birthdate": "1999-09-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 50000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "pororo",
+    "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+    "email": "pororo@email.com",
+    "realName": "김성우",
+    "birthdate": "1999-06-09",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-15T15:54:34",
+    "point": 50000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "subjectName": "2종 보통 면허",
+        "username": "totoro",
+        "price": 10000.0
+    },
+    {
+        "id": 2,
+        "subjectName": "1종 자동.1종 수동 면허",
+        "username": "pengsoo",
+        "price": 10000.0
+    },
+    {
+        "id": 3,
+        "subjectName": "1종 대형 면허",
+        "username": "pororo",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "긴급 휴강 안내",
+        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+        "createdDate": "2025-01-16T12:29:53"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": null,
+    "email": "rupee@email.com",
+    "realName": "조인성",
+    "birthdate": "1981-10-10",
+    "role": "User",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/average
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/subject/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "car_type_name": "사이버트럭"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT/user/update/password/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/enrollment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/subject/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "car_type_name": "전기트럭"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/enrollment/subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/enrollment/{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/add/car-types</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/video/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"로그인한 사용자만 강의를 수정할 수 있습니다."
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/buy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
         "username": "admin",
         "point": 900000
     },
@@ -2005,112 +2201,6 @@
         "point": 20000
     }
 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>모든 유저</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>유저 평균</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>포인트 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t xml:space="preserve">
-</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">            "자동차 종류가 성공적으로 삭제되었습니다."
-</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/under/delete/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 realname의 정보를 가진 회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /api/admin/user/average
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/enrollment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/point/{user_name}/use</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/subject/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "car_type_name": "사이버트럭"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT/user/update/password/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/subject/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/enrollment/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/video/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "car_type_name": "전기트럭"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/user/point/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/api/board/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/enrollment/subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">"로그인한 사용자만 강의를 수정할 수 있습니다."
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/cart/{user_name}/buy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/admin/add/car-types</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -2361,85 +2451,15 @@
 ]</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 추가</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류를</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 추가</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류를</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 수정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 수정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류를</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>"로그인 후 이용 가능합니다."</x:t>
+    <x:t>GET/api/user/point/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api//point/use/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "ERROR": "로그인한 사용자만 포인트 사용이 가능합니다."
+}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2752,7 +2772,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2835,7 +2854,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2870,7 +2888,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2915,7 +2932,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2959,7 +2975,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3044,7 +3059,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3065,7 +3079,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3096,7 +3109,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3464,8 +3476,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:H100"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A62" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B63" activeCellId="0" sqref="B63:B63"/>
+    <x:sheetView tabSelected="1" topLeftCell="A45" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F46" activeCellId="0" sqref="F46:F46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -3481,1250 +3493,1252 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="4" t="s">
-        <x:v>159</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>158</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>281</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>151</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G1" s="4" t="s">
-        <x:v>196</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H1" s="5" t="s">
-        <x:v>270</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A2" s="25" t="s">
-        <x:v>274</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>262</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C2" s="15" t="s">
-        <x:v>142</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D2" s="15" t="s">
-        <x:v>323</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="E2" s="12" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F2" s="12" t="s">
-        <x:v>341</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="G2" s="12" t="s">
-        <x:v>288</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="H2" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A3" s="25"/>
       <x:c r="B3" s="10" t="s">
-        <x:v>283</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>294</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D3" s="15" t="s">
-        <x:v>202</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E3" s="12" t="s">
-        <x:v>162</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F3" s="15" t="s">
-        <x:v>194</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G3" s="12" t="s">
-        <x:v>284</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A4" s="25"/>
       <x:c r="B4" s="10" t="s">
-        <x:v>133</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>66</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D4" s="11" t="s">
-        <x:v>250</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E4" s="12" t="s">
-        <x:v>162</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F4" s="11" t="s">
-        <x:v>189</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G4" s="12"/>
       <x:c r="H4" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A5" s="25"/>
       <x:c r="B5" s="10" t="s">
-        <x:v>152</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C5" s="11" t="s">
-        <x:v>129</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D5" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E5" s="11"/>
       <x:c r="F5" s="12" t="s">
-        <x:v>384</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="G5" s="12" t="s">
-        <x:v>345</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H5" s="16"/>
     </x:row>
     <x:row r="6" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A6" s="25"/>
       <x:c r="B6" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>154</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D6" s="15" t="s">
-        <x:v>371</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" s="14" t="s">
-        <x:v>96</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
-        <x:v>328</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="H6" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A7" s="25"/>
       <x:c r="B7" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D7" s="17" t="s">
-        <x:v>112</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="17"/>
       <x:c r="F7" s="11" t="s">
-        <x:v>208</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G7" s="17"/>
       <x:c r="H7" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A8" s="26"/>
       <x:c r="B8" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>42</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D8" s="18" t="s">
-        <x:v>217</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E8" s="18"/>
       <x:c r="F8" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="G8" s="10" t="s">
-        <x:v>241</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="H8" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A9" s="26"/>
       <x:c r="B9" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>235</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>308</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E9" s="18"/>
       <x:c r="F9" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G9" s="10" t="s">
-        <x:v>232</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H9" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A10" s="26"/>
       <x:c r="B10" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>224</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E10" s="18"/>
       <x:c r="F10" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="G10" s="10" t="s">
-        <x:v>365</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H10" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A11" s="26"/>
       <x:c r="B11" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>49</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D11" s="18" t="s">
-        <x:v>215</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E11" s="18"/>
       <x:c r="F11" s="10" t="s">
-        <x:v>94</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="G11" s="10" t="s">
-        <x:v>213</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H11" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A12" s="26"/>
       <x:c r="B12" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>296</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D12" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E12" s="18"/>
       <x:c r="F12" s="10" t="s">
-        <x:v>95</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G12" s="10" t="s">
-        <x:v>207</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H12" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A13" s="26"/>
       <x:c r="B13" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C13" s="10" t="s">
-        <x:v>56</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D13" s="18" t="s">
-        <x:v>350</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E13" s="18"/>
       <x:c r="F13" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G13" s="10" t="s">
-        <x:v>321</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="H13" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A14" s="26"/>
       <x:c r="B14" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C14" s="10" t="s">
-        <x:v>36</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="D14" s="18" t="s">
-        <x:v>351</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E14" s="18"/>
       <x:c r="F14" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G14" s="10" t="s">
-        <x:v>319</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="H14" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A15" s="26"/>
       <x:c r="B15" s="18" t="s">
-        <x:v>145</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C15" s="18" t="s">
-        <x:v>53</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D15" s="18" t="s">
-        <x:v>344</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E15" s="18"/>
       <x:c r="F15" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G15" s="10" t="s">
-        <x:v>354</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H15" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A16" s="26"/>
       <x:c r="B16" s="18" t="s">
-        <x:v>139</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C16" s="10" t="s">
-        <x:v>324</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D16" s="18" t="s">
-        <x:v>316</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E16" s="10"/>
       <x:c r="F16" s="10" t="s">
-        <x:v>5</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="G16" s="10" t="s">
-        <x:v>230</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="H16" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A17" s="25"/>
       <x:c r="B17" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C17" s="10" t="s">
-        <x:v>190</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D17" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E17" s="11"/>
       <x:c r="F17" s="10" t="s">
-        <x:v>358</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="G17" s="12"/>
       <x:c r="H17" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A18" s="25"/>
       <x:c r="B18" s="10" t="s">
-        <x:v>155</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C18" s="10" t="s">
-        <x:v>234</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D18" s="15" t="s">
-        <x:v>285</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
       <x:c r="F18" s="14" t="s">
-        <x:v>385</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="G18" s="10"/>
       <x:c r="H18" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A19" s="25"/>
       <x:c r="B19" s="10" t="s">
-        <x:v>279</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="C19" s="15" t="s">
-        <x:v>171</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D19" s="15" t="s">
-        <x:v>286</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E19" s="15"/>
       <x:c r="F19" s="12" t="s">
-        <x:v>382</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="G19" s="12" t="s">
-        <x:v>306</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H19" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A20" s="25"/>
       <x:c r="B20" s="11" t="s">
-        <x:v>136</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>163</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D20" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E20" s="11"/>
       <x:c r="F20" s="14" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G20" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H20" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A21" s="25"/>
       <x:c r="B21" s="10" t="s">
-        <x:v>263</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C21" s="10" t="s">
-        <x:v>60</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D21" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="E21" s="15"/>
       <x:c r="F21" s="10" t="s">
-        <x:v>98</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G21" s="17" t="s">
-        <x:v>27</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H21" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A22" s="25"/>
       <x:c r="B22" s="11" t="s">
-        <x:v>272</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C22" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D22" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E22" s="11"/>
       <x:c r="F22" s="14" t="s">
-        <x:v>342</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="G22" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="H22" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A23" s="25"/>
       <x:c r="B23" s="10" t="s">
-        <x:v>153</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="C23" s="10" t="s">
-        <x:v>203</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D23" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E23" s="11"/>
       <x:c r="F23" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G23" s="14"/>
       <x:c r="H23" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A24" s="25"/>
       <x:c r="B24" s="10" t="s">
-        <x:v>265</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C24" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D24" s="15" t="s">
-        <x:v>246</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E24" s="11"/>
       <x:c r="F24" s="10" t="s">
-        <x:v>383</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="G24" s="14" t="s">
-        <x:v>305</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H24" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A25" s="25"/>
       <x:c r="B25" s="10" t="s">
-        <x:v>278</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C25" s="10" t="s">
-        <x:v>252</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D25" s="15" t="s">
-        <x:v>40</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E25" s="10" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F25" s="14" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G25" s="14" t="s">
-        <x:v>253</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A26" s="25"/>
       <x:c r="B26" s="10" t="s">
-        <x:v>269</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="C26" s="10" t="s">
-        <x:v>210</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D26" s="15" t="s">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E26" s="11"/>
       <x:c r="F26" s="10" t="s">
-        <x:v>115</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G26" s="14" t="s">
-        <x:v>355</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H26" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A27" s="25"/>
       <x:c r="B27" s="10" t="s">
-        <x:v>282</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C27" s="10" t="s">
-        <x:v>290</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D27" s="17" t="s">
-        <x:v>312</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E27" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G27" s="14" t="s">
-        <x:v>303</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H27" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A28" s="25"/>
       <x:c r="B28" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C28" s="10" t="s">
-        <x:v>205</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D28" s="17" t="s">
-        <x:v>353</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E28" s="11"/>
       <x:c r="F28" s="10" t="s">
-        <x:v>186</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G28" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H28" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A29" s="25"/>
       <x:c r="B29" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C29" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D29" s="17" t="s">
-        <x:v>287</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E29" s="11"/>
       <x:c r="F29" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G29" s="10" t="s">
-        <x:v>315</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="H29" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A30" s="25"/>
       <x:c r="B30" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C30" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D30" s="10" t="s">
-        <x:v>113</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E30" s="11"/>
       <x:c r="F30" s="10" t="s">
-        <x:v>15</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G30" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H30" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A31" s="25"/>
       <x:c r="B31" s="10" t="s">
-        <x:v>165</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C31" s="10" t="s">
-        <x:v>251</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D31" s="10" t="s">
-        <x:v>329</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E31" s="11"/>
       <x:c r="F31" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G31" s="10" t="s">
-        <x:v>307</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="H31" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A32" s="25"/>
       <x:c r="B32" s="10" t="s">
-        <x:v>131</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C32" s="10" t="s">
-        <x:v>64</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D32" s="15" t="s">
-        <x:v>248</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E32" s="10" t="s">
-        <x:v>80</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F32" s="14" t="s">
-        <x:v>121</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G32" s="12" t="s">
-        <x:v>254</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H32" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A33" s="25"/>
       <x:c r="B33" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C33" s="10" t="s">
-        <x:v>237</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D33" s="15" t="s">
-        <x:v>260</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E33" s="11"/>
       <x:c r="F33" s="10" t="s">
-        <x:v>192</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G33" s="14" t="s">
-        <x:v>254</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H33" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A34" s="25"/>
       <x:c r="B34" s="10" t="s">
-        <x:v>138</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C34" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D34" s="17" t="s">
-        <x:v>240</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E34" s="14" t="s">
-        <x:v>176</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F34" s="10" t="s">
-        <x:v>79</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G34" s="14" t="s">
-        <x:v>204</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H34" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A35" s="25"/>
       <x:c r="B35" s="15" t="s">
-        <x:v>276</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C35" s="10" t="s">
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D35" s="17" t="s">
-        <x:v>69</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="E35" s="11"/>
       <x:c r="F35" s="10" t="s">
-        <x:v>340</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="G35" s="14" t="s">
-        <x:v>325</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H35" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A36" s="25"/>
       <x:c r="B36" s="15" t="s">
-        <x:v>276</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C36" s="14" t="s">
-        <x:v>309</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D36" s="15" t="s">
-        <x:v>320</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E36" s="15" t="s">
-        <x:v>242</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F36" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G36" s="12" t="s">
-        <x:v>325</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="H36" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A37" s="25"/>
       <x:c r="B37" s="10" t="s">
-        <x:v>271</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="C37" s="10" t="s">
-        <x:v>311</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D37" s="15" t="s">
-        <x:v>76</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E37" s="14" t="s">
-        <x:v>85</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F37" s="10" t="s">
-        <x:v>331</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="G37" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="H37" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A38" s="25"/>
       <x:c r="B38" s="10" t="s">
-        <x:v>135</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C38" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D38" s="15" t="s">
-        <x:v>231</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E38" s="14" t="s">
-        <x:v>20</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F38" s="10" t="s">
-        <x:v>103</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G38" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H38" s="16"/>
     </x:row>
     <x:row r="39" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A39" s="25"/>
       <x:c r="B39" s="10" t="s">
-        <x:v>339</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C39" s="10" t="s">
-        <x:v>198</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D39" s="15" t="s">
-        <x:v>380</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E39" s="14" t="s">
-        <x:v>78</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F39" s="10" t="s">
-        <x:v>102</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G39" s="12" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H39" s="16"/>
     </x:row>
     <x:row r="40" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A40" s="25"/>
       <x:c r="B40" s="15" t="s">
-        <x:v>6</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C40" s="14" t="s">
-        <x:v>346</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D40" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E40" s="11"/>
       <x:c r="F40" s="14" t="s">
-        <x:v>298</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G40" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H40" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A41" s="25"/>
       <x:c r="B41" s="10" t="s">
-        <x:v>275</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C41" s="14" t="s">
-        <x:v>356</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D41" s="15" t="s">
-        <x:v>228</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E41" s="15" t="s">
-        <x:v>118</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F41" s="15" t="s">
-        <x:v>332</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H41" s="16"/>
     </x:row>
     <x:row r="42" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A42" s="25"/>
       <x:c r="B42" s="10" t="s">
-        <x:v>259</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C42" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="D42" s="15" t="s">
-        <x:v>373</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="E42" s="15"/>
       <x:c r="F42" s="10" t="s">
-        <x:v>177</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G42" s="19" t="s">
-        <x:v>310</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H42" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A43" s="25"/>
       <x:c r="B43" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C43" s="14" t="s">
-        <x:v>300</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D43" s="17" t="s">
-        <x:v>243</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E43" s="17"/>
       <x:c r="F43" s="10" t="s">
-        <x:v>334</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G43" s="19"/>
       <x:c r="H43" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A44" s="25"/>
       <x:c r="B44" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C44" s="14" t="s">
-        <x:v>50</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D44" s="17" t="s">
-        <x:v>378</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="E44" s="17"/>
       <x:c r="F44" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G44" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="H44" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:8" s="9" customFormat="1" ht="273" customHeight="1">
       <x:c r="A45" s="27"/>
       <x:c r="B45" s="21" t="s">
-        <x:v>267</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C45" s="20" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D45" s="11" t="s">
-        <x:v>376</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="E45" s="20"/>
       <x:c r="F45" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G45" s="22" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H45" s="23"/>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H45" s="23" t="s">
+        <x:v>257</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:8" s="9" customFormat="1" ht="273" customHeight="1">
       <x:c r="A46" s="27"/>
       <x:c r="B46" s="21" t="s">
-        <x:v>268</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C46" s="20" t="s">
-        <x:v>149</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D46" s="11" t="s">
-        <x:v>368</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="E46" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F46" s="12" t="s">
-        <x:v>333</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="G46" s="22" t="s">
-        <x:v>299</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="H46" s="23"/>
     </x:row>
     <x:row r="47" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A47" s="25" t="s">
-        <x:v>273</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B47" s="10" t="s">
-        <x:v>280</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C47" s="14" t="s">
-        <x:v>125</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D47" s="11" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="E47" s="14" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="F47" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G47" s="12" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="H47" s="16" t="s">
         <x:v>257</x:v>
-      </x:c>
-      <x:c r="E47" s="14" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="F47" s="12" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="G47" s="12" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="H47" s="16" t="s">
-        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A48" s="25"/>
       <x:c r="B48" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C48" s="14" t="s">
-        <x:v>127</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D48" s="11" t="s">
-        <x:v>369</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E48" s="12" t="s">
-        <x:v>100</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F48" s="14" t="s">
-        <x:v>117</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G48" s="12" t="s">
-        <x:v>379</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="H48" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A49" s="25"/>
       <x:c r="B49" s="10" t="s">
-        <x:v>338</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C49" s="14" t="s">
-        <x:v>172</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D49" s="11" t="s">
-        <x:v>372</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="E49" s="11"/>
       <x:c r="F49" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="G49" s="12" t="s">
-        <x:v>318</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H49" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A50" s="25"/>
       <x:c r="B50" s="11" t="s">
-        <x:v>140</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C50" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D50" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E50" s="14" t="s">
-        <x:v>119</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F50" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G50" s="12"/>
       <x:c r="H50" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A51" s="25"/>
       <x:c r="B51" s="11" t="s">
-        <x:v>335</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C51" s="11" t="s">
-        <x:v>191</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D51" s="11" t="s">
-        <x:v>352</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E51" s="14" t="s">
-        <x:v>25</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F51" s="11" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G51" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H51" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A52" s="25"/>
       <x:c r="B52" s="11" t="s">
-        <x:v>157</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C52" s="11" t="s">
-        <x:v>164</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D52" s="11" t="s">
-        <x:v>374</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E52" s="11"/>
       <x:c r="F52" s="11" t="s">
-        <x:v>298</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G52" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H52" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A53" s="25"/>
       <x:c r="B53" s="11" t="s">
-        <x:v>141</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C53" s="11" t="s">
-        <x:v>143</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D53" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E53" s="14" t="s">
-        <x:v>107</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F53" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="G53" s="14"/>
       <x:c r="H53" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A54" s="25"/>
       <x:c r="B54" s="11" t="s">
-        <x:v>147</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C54" s="11" t="s">
-        <x:v>174</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D54" s="11" t="s">
-        <x:v>261</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E54" s="11"/>
       <x:c r="F54" s="11" t="s">
-        <x:v>298</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G54" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H54" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A55" s="25"/>
       <x:c r="B55" s="11" t="s">
-        <x:v>137</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C55" s="11" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D55" s="11" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="E55" s="14" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F55" s="11" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D55" s="11" t="s">
-        <x:v>326</x:v>
-      </x:c>
-      <x:c r="E55" s="14" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F55" s="11" t="s">
-        <x:v>167</x:v>
-      </x:c>
       <x:c r="G55" s="14" t="s">
-        <x:v>211</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="H55" s="16" t="s">
-        <x:v>161</x:v>
+        <x:v>256</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A56" s="25" t="s">
-        <x:v>266</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B56" s="15" t="s">
-        <x:v>336</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C56" s="15" t="s">
-        <x:v>175</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D56" s="15" t="s">
-        <x:v>367</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="E56" s="11"/>
       <x:c r="F56" s="10" t="s">
-        <x:v>357</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="G56" s="11"/>
       <x:c r="H56" s="16"/>
@@ -4732,17 +4746,17 @@
     <x:row r="57" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A57" s="25"/>
       <x:c r="B57" s="15" t="s">
-        <x:v>122</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C57" s="10" t="s">
-        <x:v>173</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D57" s="15" t="s">
-        <x:v>83</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E57" s="11"/>
       <x:c r="F57" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G57" s="11"/>
       <x:c r="H57" s="16"/>
@@ -4750,39 +4764,39 @@
     <x:row r="58" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A58" s="25"/>
       <x:c r="B58" s="10" t="s">
-        <x:v>277</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C58" s="11" t="s">
-        <x:v>170</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D58" s="11" t="s">
-        <x:v>109</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E58" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F58" s="12" t="s">
-        <x:v>330</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G58" s="13" t="s">
-        <x:v>299</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="H58" s="16"/>
     </x:row>
     <x:row r="59" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A59" s="25"/>
       <x:c r="B59" s="11" t="s">
-        <x:v>132</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C59" s="14" t="s">
-        <x:v>249</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D59" s="14" t="s">
-        <x:v>229</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E59" s="11"/>
       <x:c r="F59" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G59" s="11"/>
       <x:c r="H59" s="16"/>
@@ -4790,53 +4804,53 @@
     <x:row r="60" spans="1:8" s="1" customFormat="1" ht="273" customHeight="1">
       <x:c r="A60" s="25"/>
       <x:c r="B60" s="11" t="s">
-        <x:v>267</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C60" s="14" t="s">
-        <x:v>67</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D60" s="14" t="s">
-        <x:v>245</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E60" s="11"/>
       <x:c r="F60" s="14" t="s">
-        <x:v>197</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G60" s="11"/>
       <x:c r="H60" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A61" s="25"/>
       <x:c r="B61" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C61" s="14" t="s">
-        <x:v>238</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D61" s="14" t="s">
-        <x:v>322</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E61" s="11"/>
       <x:c r="F61" s="14" t="s">
-        <x:v>185</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="G61" s="11"/>
       <x:c r="H61" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A62" s="25"/>
       <x:c r="B62" s="11" t="s">
-        <x:v>361</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C62" s="11" t="s">
-        <x:v>361</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D62" s="14" t="s">
-        <x:v>366</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E62" s="11"/>
       <x:c r="F62" s="24">
@@ -4844,43 +4858,43 @@
       </x:c>
       <x:c r="G62" s="11"/>
       <x:c r="H62" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A63" s="25"/>
       <x:c r="B63" s="10" t="s">
-        <x:v>360</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C63" s="10" t="s">
-        <x:v>360</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D63" s="10" t="s">
-        <x:v>209</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E63" s="15"/>
       <x:c r="F63" s="14" t="s">
-        <x:v>359</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="G63" s="10"/>
       <x:c r="H63" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A64" s="25"/>
       <x:c r="B64" s="10" t="s">
-        <x:v>236</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C64" s="17" t="s">
-        <x:v>301</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D64" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E64" s="11"/>
       <x:c r="F64" s="10" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G64" s="12"/>
       <x:c r="H64" s="16"/>
@@ -4888,89 +4902,89 @@
     <x:row r="65" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A65" s="25"/>
       <x:c r="B65" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="C65" s="11" t="s">
-        <x:v>168</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D65" s="11" t="s">
-        <x:v>314</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E65" s="14" t="s">
-        <x:v>178</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F65" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G65" s="12" t="s">
-        <x:v>392</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H65" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A66" s="25"/>
       <x:c r="B66" s="11" t="s">
-        <x:v>337</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C66" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D66" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E66" s="11"/>
       <x:c r="F66" s="14" t="s">
-        <x:v>114</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G66" s="14" t="s">
-        <x:v>254</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H66" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A67" s="25"/>
       <x:c r="B67" s="11" t="s">
-        <x:v>264</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C67" s="14" t="s">
-        <x:v>33</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D67" s="11" t="s">
-        <x:v>219</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E67" s="14" t="s">
-        <x:v>184</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F67" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G67" s="14" t="s">
-        <x:v>204</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="H67" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8" s="6" customFormat="1" ht="273" customHeight="1">
       <x:c r="A68" s="25"/>
       <x:c r="B68" s="11" t="s">
-        <x:v>386</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C68" s="11" t="s">
-        <x:v>387</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D68" s="11" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="E68" s="14" t="s">
-        <x:v>375</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="F68" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G68" s="11"/>
       <x:c r="H68" s="16"/>
@@ -4978,17 +4992,17 @@
     <x:row r="69" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A69" s="25"/>
       <x:c r="B69" s="11" t="s">
-        <x:v>388</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C69" s="11" t="s">
-        <x:v>391</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D69" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E69" s="11"/>
       <x:c r="F69" s="14" t="s">
-        <x:v>363</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G69" s="11"/>
       <x:c r="H69" s="16"/>
@@ -4996,19 +5010,19 @@
     <x:row r="70" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A70" s="25"/>
       <x:c r="B70" s="11" t="s">
-        <x:v>390</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C70" s="11" t="s">
-        <x:v>389</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D70" s="11" t="s">
-        <x:v>110</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E70" s="14" t="s">
-        <x:v>370</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="F70" s="11" t="s">
-        <x:v>349</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G70" s="11"/>
       <x:c r="H70" s="16"/>
@@ -5016,19 +5030,19 @@
     <x:row r="71" spans="1:8" s="6" customFormat="1" ht="248.25" customHeight="1">
       <x:c r="A71" s="25"/>
       <x:c r="B71" s="14" t="s">
-        <x:v>73</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C71" s="14" t="s">
-        <x:v>54</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D71" s="15" t="s">
-        <x:v>216</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E71" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F71" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G71" s="11"/>
       <x:c r="H71" s="16"/>
@@ -5036,19 +5050,19 @@
     <x:row r="72" spans="1:8" s="9" customFormat="1" ht="273" customHeight="1">
       <x:c r="A72" s="25"/>
       <x:c r="B72" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C72" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D72" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E72" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F72" s="14" t="s">
-        <x:v>90</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G72" s="11"/>
       <x:c r="H72" s="16"/>
@@ -5056,19 +5070,19 @@
     <x:row r="73" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A73" s="25"/>
       <x:c r="B73" s="14" t="s">
-        <x:v>74</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C73" s="14" t="s">
-        <x:v>52</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D73" s="11" t="s">
-        <x:v>220</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E73" s="14" t="s">
-        <x:v>23</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F73" s="14" t="s">
-        <x:v>101</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G73" s="11"/>
       <x:c r="H73" s="16"/>
@@ -5076,59 +5090,59 @@
     <x:row r="74" spans="1:8" s="1" customFormat="1" ht="273" customHeight="1">
       <x:c r="A74" s="25"/>
       <x:c r="B74" s="11" t="s">
-        <x:v>187</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C74" s="14" t="s">
-        <x:v>70</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D74" s="11" t="s">
-        <x:v>313</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="E74" s="14"/>
       <x:c r="F74" s="14" t="s">
-        <x:v>4</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="G74" s="14"/>
       <x:c r="H74" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:8" s="1" customFormat="1" ht="273" customHeight="1">
       <x:c r="A75" s="25"/>
       <x:c r="B75" s="11" t="s">
-        <x:v>187</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C75" s="14" t="s">
-        <x:v>71</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D75" s="11" t="s">
-        <x:v>348</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E75" s="14"/>
       <x:c r="F75" s="14" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G75" s="14"/>
       <x:c r="H75" s="16" t="s">
-        <x:v>160</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A76" s="25"/>
       <x:c r="B76" s="11" t="s">
-        <x:v>166</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C76" s="10" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D76" s="11" t="s">
-        <x:v>212</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E76" s="10" t="s">
-        <x:v>181</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F76" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G76" s="10"/>
       <x:c r="H76" s="16"/>
@@ -5136,17 +5150,17 @@
     <x:row r="77" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A77" s="25"/>
       <x:c r="B77" s="11" t="s">
-        <x:v>302</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C77" s="10" t="s">
-        <x:v>200</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D77" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E77" s="11"/>
       <x:c r="F77" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G77" s="10"/>
       <x:c r="H77" s="16"/>
@@ -5154,294 +5168,294 @@
     <x:row r="78" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A78" s="25"/>
       <x:c r="B78" s="11" t="s">
-        <x:v>166</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C78" s="10" t="s">
-        <x:v>292</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D78" s="11" t="s">
-        <x:v>84</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E78" s="10" t="s">
-        <x:v>182</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F78" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G78" s="10" t="s">
-        <x:v>222</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H78" s="16"/>
     </x:row>
     <x:row r="79" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A79" s="25"/>
       <x:c r="B79" s="11" t="s">
-        <x:v>302</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C79" s="10" t="s">
-        <x:v>239</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D79" s="11" t="s">
-        <x:v>108</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E79" s="11"/>
       <x:c r="F79" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G79" s="10" t="s">
-        <x:v>222</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H79" s="16"/>
     </x:row>
     <x:row r="80" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A80" s="25"/>
       <x:c r="B80" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C80" s="10" t="s">
-        <x:v>289</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D80" s="11" t="s">
-        <x:v>87</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E80" s="10" t="s">
-        <x:v>180</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F80" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G80" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H80" s="16"/>
     </x:row>
     <x:row r="81" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A81" s="25"/>
       <x:c r="B81" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C81" s="10" t="s">
-        <x:v>297</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D81" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E81" s="11"/>
       <x:c r="F81" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G81" s="10" t="s">
-        <x:v>218</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H81" s="16"/>
     </x:row>
     <x:row r="82" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A82" s="25"/>
       <x:c r="B82" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C82" s="10" t="s">
-        <x:v>327</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D82" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E82" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F82" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G82" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H82" s="16"/>
     </x:row>
     <x:row r="83" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A83" s="25"/>
       <x:c r="B83" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C83" s="10" t="s">
-        <x:v>317</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D83" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E83" s="11"/>
       <x:c r="F83" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G83" s="10" t="s">
-        <x:v>255</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="H83" s="16"/>
     </x:row>
     <x:row r="84" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A84" s="25"/>
       <x:c r="B84" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C84" s="10" t="s">
-        <x:v>295</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D84" s="11" t="s">
-        <x:v>226</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E84" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F84" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G84" s="10" t="s">
-        <x:v>304</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H84" s="16"/>
     </x:row>
     <x:row r="85" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A85" s="25"/>
       <x:c r="B85" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C85" s="10" t="s">
-        <x:v>256</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D85" s="11" t="s">
-        <x:v>233</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E85" s="11"/>
       <x:c r="F85" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G85" s="10" t="s">
-        <x:v>304</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="H85" s="16"/>
     </x:row>
     <x:row r="86" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A86" s="25"/>
       <x:c r="B86" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C86" s="10" t="s">
-        <x:v>206</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D86" s="11" t="s">
-        <x:v>227</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E86" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F86" s="10" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G86" s="10" t="s">
-        <x:v>347</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H86" s="16"/>
     </x:row>
     <x:row r="87" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A87" s="25"/>
       <x:c r="B87" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C87" s="10" t="s">
-        <x:v>291</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D87" s="11" t="s">
-        <x:v>364</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E87" s="11"/>
       <x:c r="F87" s="10" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G87" s="10" t="s">
-        <x:v>347</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H87" s="16"/>
     </x:row>
     <x:row r="88" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A88" s="25"/>
       <x:c r="B88" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C88" s="10" t="s">
-        <x:v>293</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D88" s="11" t="s">
-        <x:v>247</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E88" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F88" s="11" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G88" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H88" s="16"/>
     </x:row>
     <x:row r="89" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A89" s="25"/>
       <x:c r="B89" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C89" s="10" t="s">
-        <x:v>244</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D89" s="11" t="s">
-        <x:v>258</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E89" s="11"/>
       <x:c r="F89" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G89" s="10" t="s">
-        <x:v>201</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H89" s="16"/>
     </x:row>
     <x:row r="90" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A90" s="25"/>
       <x:c r="B90" s="11" t="s">
-        <x:v>169</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C90" s="10" t="s">
-        <x:v>324</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D90" s="11" t="s">
-        <x:v>221</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E90" s="10" t="s">
-        <x:v>183</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F90" s="11" t="s">
-        <x:v>167</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G90" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H90" s="16"/>
     </x:row>
     <x:row r="91" spans="1:8" s="6" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A91" s="25"/>
       <x:c r="B91" s="11" t="s">
-        <x:v>193</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C91" s="10" t="s">
-        <x:v>324</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D91" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E91" s="11"/>
       <x:c r="F91" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G91" s="10" t="s">
-        <x:v>225</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H91" s="16"/>
     </x:row>

--- a/문서/API(99).xlsx
+++ b/문서/API(99).xlsx
@@ -19,148 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="340">
-  <x:si>
-    <x:t>학습 완료 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "username": "totoro",
-        "subjectName": "1종 대형 면허",
-        "price": 10000.0
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "title" : "1종 자동",
-    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허입니다.",
-    "price" : "10000"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강 완료 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": null,
-    "email": "rupee@email.com",
-    "realName": "하정우",
-    "birthdate": "1980-11-11",
-    "role": "User",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "긴급 휴강 안내",
-        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
-        "createdDate": "2025-01-16T11:10:01"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
- { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/{user_name}/
-completed-subjects</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "해당 제목의 게시글을 찾을 수 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 날짜에 가입한 회원이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 정보의 과목이 존재하지 않습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 5,
-        "title": "1종 수동",
-        "content": "드리프트하는 방법 알려주세요!",
-        "author": "crong",
-        "createdDate": "2025-01-17T12:37:44.894372",
-        "modifiedDate": "2025-01-17T14:25:38.286699",
-        "commentList": [],
-        "commentList1": [],
-        "commentList2": []
-    },
-    {
-        "id": 7,
-        "title": "1종 대형",
-        "content": "1종 수동은 어떻게 운전을 하나요?",
-        "author": "crong",
-        "createdDate": "2025-01-17T14:24:10.678714",
-        "modifiedDate": "2025-01-17T14:24:10.678714",
-        "commentList": [],
-        "commentList1": [],
-        "commentList2": []
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "title": "안녕하세요",
-    "content": "안녕하세요 저는 루피 입니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-    "userName" : "rupee",
-    "password" : "new12345"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "로그인한 사용자만 장바구니에 과목을 추가할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 8,
-    "title": "안녕하세요",
-    "content": "안녕하세요 저는 토토로 입니다.",
-    "author": "rupee",
-    "createdDate": "2025-01-21T19:49:34.1153188",
-    "modifiedDate": "2025-01-21T19:49:34.1153188"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인이 생성한 강의만 
-수정할 수 있습니다.
-{
-    "id": 15,
-    "title": "1종 자동",
-    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허입니다.",
-    "typeList": [],
-    "price": 10000.0,
-    "instructorName": "남재우"
-}</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="339">
   <x:si>
     <x:t>{
     "id": 1,
@@ -186,28 +45,96 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-    "id": 7,
-    "user": "rupee",
-    "comment": "학원에서 드리프트도 할 수 있나요?",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 7,
-    "user": "rupee",
-    "comment": "운전 어려운데 어떻게 쉽게 하나요?",
-    "boardId": 1
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "본인이 수강 신청한 과목만 조회할 수 있습니다."
+    <x:t>본인이 생성한 강의만 
+수정할 수 있습니다.
+{
+    "id": 15,
+    "title": "1종 자동",
+    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허입니다.",
+    "typeList": [],
+    "price": 10000.0,
+    "instructorName": "남재우"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 8,
+    "title": "안녕하세요",
+    "content": "안녕하세요 저는 토토로 입니다.",
+    "author": "rupee",
+    "createdDate": "2025-01-21T19:49:34.1153188",
+    "modifiedDate": "2025-01-21T19:49:34.1153188"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/users/enrollment/
+{user_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 정보를 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 8,
+        "title": "삭제된 게시글입니다.",
+        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+        "author": "rupee",
+        "createdDate": "2025-01-21T19:49:34.115319",
+        "modifiedDate": "2025-01-21T19:56:04.562137"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
 }
 {
-    "ERROR": "로그인한 사용자만 수강 신청 내역을 조회할 수 있습니다."
-}</x:t>
+"Resource Not Found": "해당 유저의 댓글이 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "로그인한 사용자만 장바구니 조회가 가능합니다."
+}
+{
+"Resource Not Found": "없음"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "ERROR": "로그인한 사용자만 강의를 생성할 수 있습니다."
+}
+{
+"ERROR": "관리자와 강사만 강의를 생성할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url",
+"subject_id":1
+    {
+    "title":"1종 자동.1종 수동 면허"
+     }
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 로그인중인 
+본인의 정보 조회</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -228,250 +155,39 @@
   <x:si>
     <x:t>[
     {
-        "username": "fourbie",
-        "subjectName": "1종 자동.1종 수동 면허",
-        "price": 10000.0
-    },
-    {
-        "username": "pororo",
-        "subjectName": "2종 보통 면허",
-        "price": 10000.0
-    },
+        "id": 1,
+        "title": "긴급 휴강 안내",
+        "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
+        "createdDate": "2025-01-16T11:10:01"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": null,
+    "email": "rupee@email.com",
+    "realName": "하정우",
+    "birthdate": "1980-11-11",
+    "role": "User",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "title" : "1종 자동",
+    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허입니다.",
+    "price" : "10000"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
     {
         "username": "totoro",
         "subjectName": "1종 대형 면허",
         "price": 10000.0
     }
 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "관리자만 모든 수강 신청을 조회할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "ERROR": "로그인한 사용자만 포인트 사용이 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "user": "pengsoo",
-        "comment": "ㅎㅎ",
-        "boardId": 1
-    },
-    {
-        "id": 2,
-        "user": "totoro",
-        "comment": "ㄴㄴ",
-        "boardId": 1
-    },
-    {
-        "id": 3,
-        "user": "fourbie",
-        "comment": "ㅇㅇ",
-        "boardId": 1
-    },
-    {
-        "id": 6,
-        "user": "crong",
-        "comment": "드리프트는 잘 하면 돼",
-        "boardId": 1
-    },
-    {
-        "id": 7,
-        "user": "rupee",
-        "comment": "운전 어려운데 어떻게 쉽게 하나요?",
-        "boardId": 1
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/users/enrollment/{user_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"point":5000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "해당 공지사항이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">api/user/add?username=rupee&amp;subjectId=1 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 8,
-    "title": "삭제된 게시글입니다.",
-    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-    "author": "rupee",
-    "createdDate": "2025-01-21T19:49:34.115319",
-    "modifiedDate": "2025-01-21T19:55:52.6576727",
-    "commentList": [],
-    "commentList1": [],
-    "commentList2": []
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 공지사항이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"image_url":"image_url1",
-"subject_id":1
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 회원이 존재하지 않습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/cart/user/delete/
-subject/{subjectId}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "본인만 자신의 realname을 조회할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName":"rupee",
-    "password":"12345678"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"title": "안녕하세요",
-"content": "안녕하세요 저는 토토로 입니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 날짜 이전에 가입한 회원이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "입력하신 날짜 이후에 가입한 회원이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "해당 ID를 가진 Board가 존재하지 않습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "로그인한 사용자만 장바구니 조회가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url1",
-"subject_id":1
-{
-"title":"1종 자동.1종 수동 면허"
-}
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "본인의 정보만 조회할 수 있습니다."
-}
-{
-"ERROR": "로그인한 사용자만 포인트 조회가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/over/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/board/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/enrollment/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/{date}/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/board/login/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/under/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 중인 사용자의 이름으로 장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 해당 USER가 
-존재하지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 중인 회원이 관리자,
-강사일 경우 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/admin/notice/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/first</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST /api/user/register </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /api/admin/user/least
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/user/me/delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get/api/comment/board/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/video/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 중인 회원이 관리자,
-강사일 경우 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api//admin/user/last</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/date/{date}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>두개의 지정 날짜 사이에 가입
-한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/image/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 중인 회원이 관리자,
-강사일 경우 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인중인 사용자가 과목 id로 장바구니 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -487,91 +203,53 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-    "id": 14,
-    "title": "1종 수동",
-    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "typeList": [],
-    "price": 15000.0,
-    "instructorName": "관리자"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/enrollment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/api/comment/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/image/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api//point/use/{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT/api/user/update/password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/video/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName" : "rupee"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/subject/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/user/point/{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GET /api/admin/user/average
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/subject/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/enrollment/subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE/api/board/delete/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 한 사람이 관리자일 경우 모든 수강신청 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/cart/user/{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api//admin/add/car/type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"id": 4,
-"title": "오후 휴강",
-"content": "차량 정검으로 인해 오후는 휴강을 하게 되었습니다.",
-    "createdDate": "2025-01-21T18:26:22.7653658"
+    <x:t>[ { "subject_id": 1, "title": "1종 수동 면허", "status": "completed" },
+ { "subject_id": 2, "title": "2종 보통 면허", "status": "completed" }]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "해당 제목의 게시글을 찾을 수 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/{user_name}/
+completed-subjects</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 정보의 과목이 존재하지 않습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 날짜에 가입한 회원이 없습니다."
 }</x:t>
   </x:si>
   <x:si>
     <x:t>[
     {
+        "id": 5,
+        "title": "1종 수동",
+        "content": "드리프트하는 방법 알려주세요!",
+        "author": "crong",
+        "createdDate": "2025-01-17T12:37:44.894372",
+        "modifiedDate": "2025-01-17T14:25:38.286699",
+        "commentList": [],
+        "commentList1": [],
+        "commentList2": []
+    },
+    {
         "id": 7,
-        "user": "rupee",
-        "comment": "운전 어려운데 어떻게 쉽게 하나요?",
-        "boardId": 1
+        "title": "1종 대형",
+        "content": "1종 수동은 어떻게 운전을 하나요?",
+        "author": "crong",
+        "createdDate": "2025-01-17T14:24:10.678714",
+        "modifiedDate": "2025-01-17T14:24:10.678714",
+        "commentList": [],
+        "commentList1": [],
+        "commentList2": []
     }
 ]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"id": 4,
-"title": "오전 휴강",
-"content": "차량 정검으로 인해 오전은 휴강을 하게 되었습니다.",
-    "createdDate": "2025-01-21T18:24:50.3838617"
-}</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -586,55 +264,197 @@
   </x:si>
   <x:si>
     <x:t>{
-"ERROR": "로그인 후 
-이용가능합니다"
+    "userName": "rupee",
+    "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
+    "email": "rupee@email.com",
+    "realName": "하정우",
+    "birthdate": "1980-11-11",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-21",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "로그인한 사용자만 장바구니에 과목을 삭제할 수 있습니다."
 }
 {
-"ERROR": "관리자만 포인트 조회가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 수정이 가능합니다."
+"Resource Not Found": "해당 과목을 장바구니에 추가한 사용자가 아닙니다."
 }
 {
-"ERROR": "사용자의 답글이 아닙니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인 후 
-이용가능합니다"
+"Resource Not Found": "존재하지 않는 과목입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 강의를 수정할 수 있습니다."
 }
 {
-"ERROR": "관리자만 
-포인트 조회가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 삭제가 가능합니다."
+"ERROR": "강사만 강의를 수정할 수 있습니다."
 }
 {
-"ERROR": "사용자의 답글이 아닙니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자의 글이 아닙니다."
+"ERROR": "관리자는 강의를 수정할 수 없습니다."
 }
 {
-"ERROR": "로그인한 사용자의 글이 아닙니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인 후 이용가능합니다"
+"Resource Not Found": "존재하지 않는 강의입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 공지사항이 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 회원이 존재하지 않습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "본인만 자신의 realname을 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"image_url":"image_url1",
+"subject_id":1
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/cart/user/delete/
+subject/{subjectId}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id" : "5",
+    "title" : "1종 수동",
+    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "price" : "15000"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 날짜 이전에 가입한 회원이 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "입력하신 날짜 이후에 가입한 회원이 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "해당 ID를 가진 Board가 존재하지 않습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"title": "안녕하세요",
+"content": "안녕하세요 저는 토토로 입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "로그인한 사용자만 장바구니 조회가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName":"rupee",
+    "password":"12345678"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 타입을 추가할 수 있습니다."
 }
 {
-"ERROR": "관리자만 
-포인트 조회가 가능합니다."
-}</x:t>
+"ERROR": "관리자 또는 강사만 타입을 추가할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "관리자만 권한을 조회할 수 있습니다."
+}
+{
+"Resource Not Found": "입력하신 권한이 존재하지 않습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"point":5000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "ERROR": "로그인한 사용자만 포인트 사용이 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "관리자만 모든 수강 신청을 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">api/user/add?username=rupee&amp;subjectId=1 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "해당 공지사항이 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 날짜 사이에 가입하신 
+회원이 존재하지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/admin/notice/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/birthdate/{birthdate}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/authority/{authority}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 등록이 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 수정이 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/board/title/search/{title}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/cart/{user_name}/checkout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/realname/
+{real_name}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 변경이 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET / api/boardusername/
+{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 본인이 맞을 경우 과목 ID로 수강신청 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/username/
+{username}</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -659,230 +479,19 @@
 ]</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 수정이 가능합니다."
-}
-{
-"ERROR": "관리자 또는 강사만 수정이 가능합니다."
-}
-{
-"Resource Not Found": "해당 ID를 가진 타입을 찾을 수 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 5,
-        "subjectName": "1종 자동.1종 수동 면허",
-        "username": "rupee",
-        "price": 10000.0
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 강의를 삭제할 수 있습니다."
-}
-{
-"ERROR": "관리자 또는 강사만 강의를 삭제할 수 있습니다."
-}
-{
-"Resource Not Found": "존재하지 않는 강의입니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "pengsoo",
-        "createdDate": "2025-01-16T11:10:01",
-        "modifiedDate": "2025-01-16T11:10:01"
-    },
-    {
-        "id": 2,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "totoro",
-        "createdDate": "2025-01-16T11:10:01",
-        "modifiedDate": "2025-01-16T11:10:01"
-    },
-    {
-        "id": 3,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "fourbie",
-        "createdDate": "2025-01-16T11:10:01",
-        "modifiedDate": "2025-01-16T11:10:01"
-    },
-    {
-        "id": 4,
-        "title": "질문",
-        "content": "질문있습니다",
-        "author": "pororo",
-        "createdDate": "2025-01-16T11:10:01",
-        "modifiedDate": "2025-01-16T11:10:01"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "관리자만 권한을 조회할 수 있습니다."
-}
-{
-"Resource Not Found": "입력하신 권한이 존재하지 않습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 타입을 추가할 수 있습니다."
-}
-{
-"ERROR": "관리자 또는 강사만 타입을 추가할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "comment" : "학원에서 드리프트도 할 수 있나요?", 
-    "boardId" : "1"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "comment" : "운전 어려운데 어떻게 쉽게 하나요?", 
-    "boardId" : "1"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"title":"오후 휴강",
-"content":"차량 정검으로 인해 오후는 휴강을 하게 되었습니다."
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"title":"오전 휴강",
-"content":"차량 정검으로 인해 오전은 휴강을 하게 되었습니다."
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 &amp; 구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 검색</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">강의 내용 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강사 권한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장바구니 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 회원 탈퇴가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/admin/delete/car/types/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "본인만 자신의 정보를 조회할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "본인만 자신의 생일을 조회할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Get /api/comment/username/
-{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/admin/update/car/
-type/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/notice/title/search/{title}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DELETE /api/admin/notice/
-delete/{id}</x:t>
+    <x:t>본인의 회원을 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새로운 사용자 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Response</x:t>
   </x:si>
   <x:si>
     <x:t>[[
@@ -901,20 +510,274 @@
 ]</x:t>
   </x:si>
   <x:si>
+    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"ERROR": "로그인한 사용자만 삭제가 가능합니다."
+}
+{
+"ERROR": "본인이 작성한 게시글만 삭제할 수 있습니다."
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "user_name": "totoro",
+  "purchase_date": "2023-01-15",
+  "purchased_courses": [
+    {
+      "course_id": 1,
+      "title": "1종 수동 면허",
+      "price": 10000,
+      "quantity": 1
+    },
+    {
+      "course_id": 2,
+      "title": "2종 보통 면허",
+      "price": 10000,
+      "quantity": 1
+    }
+  ],
+  "total_amount": 20000
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 14,
+    "title": "1종 수동",
+    "explanation": "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
+    "typeList": [],
+    "price": 15000.0,
+    "instructorName": "관리자"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+{
+"video_url":"video_url1",
+"subject_id":1
+{
+"title":"1종 자동.1종 수동 면허"
+}
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "본인의 정보만 조회할 수 있습니다."
+}
+{
+"ERROR": "로그인한 사용자만 포인트 조회가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
     <x:t>[
     {
-        "userName": "rupee",
-        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
-        "email": "rupee@email.com",
-        "realName": "하정우",
-        "birthdate": "1980-11-11",
-        "authority": {
-            "authorityName": "User"
-        },
-        "createdAt": "2025-01-21",
-        "point": 10000
+        "id": 1,
+        "user": "pengsoo",
+        "comment": "ㅎㅎ",
+        "boardId": 1
+    },
+    {
+        "id": 2,
+        "user": "totoro",
+        "comment": "ㄴㄴ",
+        "boardId": 1
+    },
+    {
+        "id": 3,
+        "user": "fourbie",
+        "comment": "ㅇㅇ",
+        "boardId": 1
+    },
+    {
+        "id": 6,
+        "user": "crong",
+        "comment": "드리프트는 잘 하면 돼",
+        "boardId": 1
+    },
+    {
+        "id": 7,
+        "user": "rupee",
+        "comment": "운전 어려운데 어떻게 쉽게 하나요?",
+        "boardId": 1
     }
 ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+    "userName" : "rupee",
+    "password" : "new12345"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "로그인한 사용자만 장바구니에 과목을 추가할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "title": "안녕하세요",
+    "content": "안녕하세요 저는 루피 입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 8,
+    "title": "삭제된 게시글입니다.",
+    "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
+    "author": "rupee",
+    "createdDate": "2025-01-21T19:49:34.115319",
+    "modifiedDate": "2025-01-21T19:55:52.6576727",
+    "commentList": [],
+    "commentList1": [],
+    "commentList2": []
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 7,
+        "user": "rupee",
+        "comment": "운전 어려운데 어떻게 쉽게 하나요?",
+        "boardId": 1
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"id": 4,
+"title": "오후 휴강",
+"content": "차량 정검으로 인해 오후는 휴강을 하게 되었습니다.",
+    "createdDate": "2025-01-21T18:26:22.7653658"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"id": 4,
+"title": "오전 휴강",
+"content": "차량 정검으로 인해 오전은 휴강을 하게 되었습니다.",
+    "createdDate": "2025-01-21T18:24:50.3838617"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/notice/
+delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/admin/update/car/
+type/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "본인만 자신의 생일을 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/admin/delete/car/types/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "본인만 자신의 정보를 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get /api/comment/username/
+{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/notice/title/search/{title}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 회원 탈퇴가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"title":"오전 휴강",
+"content":"차량 정검으로 인해 오전은 휴강을 하게 되었습니다."
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "comment" : "운전 어려운데 어떻게 쉽게 하나요?", 
+    "boardId" : "1"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+"title":"오후 휴강",
+"content":"차량 정검으로 인해 오후는 휴강을 하게 되었습니다."
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "comment" : "학원에서 드리프트도 할 수 있나요?", 
+    "boardId" : "1"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 삭제가 가능합니다."
+}
+{
+"ERROR": "사용자의 답글이 아닙니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 수정이 가능합니다."
+}
+{
+"ERROR": "사용자의 답글이 아닙니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자의 글이 아닙니다."
+}
+{
+"ERROR": "로그인한 사용자의 글이 아닙니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인 후 
+이용가능합니다"
+}
+{
+"ERROR": "관리자만 
+포인트 조회가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인 후 
+이용가능합니다"
+}
+{
+"ERROR": "관리자만 포인트 조회가 가능합니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인 후 이용가능합니다"
+}
+{
+"ERROR": "관리자만 
+포인트 조회가 가능합니다."
+}</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -934,48 +797,6 @@
   </x:si>
   <x:si>
     <x:t>{
-    "userName": "rupee",
-    "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
-    "email": "rupee@email.com",
-    "realName": "하정우",
-    "birthdate": "1980-11-11",
-    "authority": {
-        "authorityName": "USER"
-    },
-    "createdAt": "2025-01-21",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
-    "email": "rupee@email.com",
-    "realName": "하정우",
-    "birthdate": "1980-11-11",
-    "authority": {
-        "authorityName": "User"
-    },
-    "createdAt": "2025-01-21",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "userName": "rupee",
-    "password": "$2a$10$rmtbLXSRBvwuTNt7tGfvke/eGaEryPKeLvaxYsAH6hU9iv.hUHLcy",
-    "email": "rupee@email.com",
-    "realName": "하정우",
-    "birthdate": "1980-11-11",
-    "authority": {
-        "authorityName": "USER"
-    },
-    "createdAt": "2025-01-21",
-    "point": 10000
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
     "id": 1,
     "title": "긴급 휴강 안내",
     "content": "강사님의 사정으로 인해 2025.01.01은 휴강으로 조정 되었습니다.",
@@ -992,96 +813,215 @@
 } </x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"Resource Not Found": "로그인한 사용자만 장바구니 조회가 가능합니다."
+    <x:t>로그인 중인 회원이 관리자,
+강사일 경우 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니에서 선택한 강의를 결제하고 구매하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두개의 지정 날짜 사이에 가입
+한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/image/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api//admin/user/last</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/register </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/{date}/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/least
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/login/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/video/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/first</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get/api/comment/board/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/under/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 중인 사용자의 이름으로 장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 중인 회원이 관리자,
+강사일 경우 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/admin/notice/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/user/me/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/over/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/enrollment/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 중인 회원이 관리자,
+강사일 경우 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인중인 사용자가 과목 id로 장바구니 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/board/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/date/{date}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 적은 포인트를 
+보유 중인
+유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/cart/user/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/user/subjectdun</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/enrollment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 답글 board id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/user/logout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET / api//board/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">POST /api/user/login </x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/comment/update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/comment/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "pengsoo",
+        "createdDate": "2025-01-16T11:10:01",
+        "modifiedDate": "2025-01-16T11:10:01"
+    },
+    {
+        "id": 2,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "totoro",
+        "createdDate": "2025-01-16T11:10:01",
+        "modifiedDate": "2025-01-16T11:10:01"
+    },
+    {
+        "id": 3,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "fourbie",
+        "createdDate": "2025-01-16T11:10:01",
+        "modifiedDate": "2025-01-16T11:10:01"
+    },
+    {
+        "id": 4,
+        "title": "질문",
+        "content": "질문있습니다",
+        "author": "pororo",
+        "createdDate": "2025-01-16T11:10:01",
+        "modifiedDate": "2025-01-16T11:10:01"
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 5,
+        "subjectName": "1종 자동.1종 수동 면허",
+        "username": "rupee",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 강의를 삭제할 수 있습니다."
 }
 {
-"Resource Not Found": "없음"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
+"ERROR": "관리자 또는 강사만 강의를 삭제할 수 있습니다."
 }
 {
-"Resource Not Found": "해당 유저의 댓글이 없습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "ERROR": "로그인한 사용자만 강의를 생성할 수 있습니다."
+"Resource Not Found": "존재하지 않는 강의입니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 수정이 가능합니다."
 }
 {
-"ERROR": "관리자와 강사만 강의를 생성할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-{
-"video_url":"video_url",
-"subject_id":1
-    {
-    "title":"1종 자동.1종 수동 면허"
-     }
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "user_name": "totoro", "selected_subject_ids": [1, 2], "use_points": 5000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-"ERROR": "로그인한 사용자만 삭제가 가능합니다."
+"ERROR": "관리자 또는 강사만 수정이 가능합니다."
 }
 {
-"ERROR": "본인이 작성한 게시글만 삭제할 수 있습니다."
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"user_name":"pengsoo", 
-"user_point" : "5000"
-"Use_point": "5000"
-"message" : "포인트가 사용되었습니다"
-},</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"Resource Not Found": "로그인한 사용자만 조회가 가능합니다."
-}
-{
-"Resource Not Found": "해당 유저는 수강신청을 하지 않았습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 수강 신청 내역을 조회할 수 있습니다."
-}
-{
-"ERROR": "관리자만 다른 사용자의 수강 신청 내역을 조회할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id": 5,
-    "subjectName": "1종 자동.1종 수동 면허",
-    "username": "rupee",
-    "price": 10000.0
-}</x:t>
+"Resource Not Found": "해당 ID를 가진 타입을 찾을 수 없습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "id": 1,
+        "subjectName": "2종 보통 면허",
+        "username": "totoro",
+        "price": 10000.0
+    },
+    {
+        "id": 2,
+        "subjectName": "1종 자동.1종 수동 면허",
+        "username": "pengsoo",
+        "price": 10000.0
+    },
+    {
+        "id": 3,
+        "subjectName": "1종 대형 면허",
+        "username": "pororo",
+        "price": 10000.0
+    }
+]</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">[
@@ -1121,74 +1061,6 @@
 </x:t>
   </x:si>
   <x:si>
-    <x:t>[
-    {
-        "userName": "crong",
-        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-        "email": "crong@email.com",
-        "realName": "정우성",
-        "birthdate": "1980-12-12",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-17",
-        "point": 10000
-    },
-    {
-        "userName": "rupee",
-        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
-        "email": "rupee@email.com",
-        "realName": "하정우",
-        "birthdate": "1980-11-11",
-        "authority": {
-            "authorityName": "User"
-        },
-        "createdAt": "2025-01-21",
-        "point": 10000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "userName": "crong",
-        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
-        "email": "crong@email.com",
-        "realName": "정우성",
-        "birthdate": "1980-12-12",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-17",
-        "point": 10000
-    },
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 10000
-    },
-    {
-        "userName": "rupee",
-        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
-        "email": "rupee@email.com",
-        "realName": "하정우",
-        "birthdate": "1980-11-11",
-        "authority": {
-            "authorityName": "User"
-        },
-        "createdAt": "2025-01-21",
-        "point": 10000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
     <x:t>{
     "id": 1,
     "title": "질문",
@@ -1216,509 +1088,28 @@
   <x:si>
     <x:t>[
     {
-        "username": "admin",
-        "point": 900000
-    },
-    {
-        "username": "crong",
+        "userName": "crong",
+        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+        "email": "crong@email.com",
+        "realName": "정우성",
+        "birthdate": "1980-12-12",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-17",
         "point": 10000
     },
     {
-        "username": "eddie",
-        "point": 19000
-    },
-    {
-        "username": "fourbie",
-        "point": 30000
-    },
-    {
-        "username": "panda",
-        "point": 17000
-    },
-    {
-        "username": "pengsoo",
+        "userName": "rupee",
+        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
+        "email": "rupee@email.com",
+        "realName": "하정우",
+        "birthdate": "1980-11-11",
+        "authority": {
+            "authorityName": "User"
+        },
+        "createdAt": "2025-01-21",
         "point": 10000
-    },
-    {
-        "username": "pororo",
-        "point": 15000
-    },
-    {
-        "username": "rupee",
-        "point": 10000
-    },
-    {
-        "username": "totoro",
-        "point": 20000
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인 후 이용 가능합니다."
-}
-{
-"ERROR": "관리자만 공지사항을 추가할 수 있습니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
-}
-{
-"Resource Not Found": "없음"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-    "id" : "5",
-    "title" : "1종 수동",
-    "explanation" : "1종 자동 면허는 자동변속기 차량만 운전할 수 있는 면허이며, 1종 수동 면허는 자동변속기와 수동변속기 차량 모두 운전할 수 있는 면허입니다.",
-    "price" : "15000"
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타입 추가가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소  삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자 권한으로 
-정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 장바구니 목록 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모든 회원 구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 
-내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항에 글을 등록하는기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 
-구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이 학습 
-완료한 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 의 모든 과목을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 모두 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 
-내용을 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Error Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 강의 
-내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 탈퇴가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 유저 장바구니 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 답글을 id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제가 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수정이 완료 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 과목의 동영상을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃이 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 게시한 게시글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Request Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글 삭제가 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 공지사항의 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>모든 유저</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>유저 평균</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 포인트 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/realname/
-{real_name}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/birthdate/{birthdate}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/board/title/search/{title}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 본인이 맞을 경우 과목 ID로 수강신청 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/cart/{user_name}/checkout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 날짜 사이에 가입하신 
-회원이 존재하지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 변경이 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/authority/{authority}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/admin/notice/update/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 수정이 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/username/
-{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 등록이 가능합니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET / api/boardusername/
-{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 먼저 가입한 
-유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트가 가장 많은 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/notice/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/video/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 
-삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/image/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 최근 가입한
- 유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타입 수정이 완료되었습니다.
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 공지사항을 
-보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이전에 가입한 
-회원조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/notice/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/cart/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과목별 강의 동영상 자료 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/board/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 등록이 완료되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의가 성공적으로 삭제되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthdate으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user_name으로 특정회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/video/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 공지사항을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강을 완료한 
-회원 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>real_name으로 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정날짜 이후에 가입한 
-회원조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판의 특정 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지정 날짜에 가입한 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 영상이 등록 되었습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자가 게시판을 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/user/me</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 작성 게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강 신청한 특정 회원의 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자의 답글을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자의 답글을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/board/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 모든 유저 답글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유저네임으로 수강 신청을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 회원의 수강신청을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 삭제하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 수정하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판에 달린 답글 board id로 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/user/subjectdun</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/cart/user/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/enrollment/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 올바르지 않습니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/user/logout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET / api//board/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수강신청한 특정 회원수강 신청을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 적은 포인트를 
-보유 중인
-유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/subject/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUT /api/comment/update</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">POST /api/user/login </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/comment/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST /api/subject/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/most</x:t>
-  </x:si>
-  <x:si>
-    <x:t>입력하신 정보가 
-올바르지 않습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/subject/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POST/api/comment/add</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존사용자 아이디와 
-패스워드로 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "name": "전기트럭"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{
-  "name": "전기자동차"
-}
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET/api/admin/user/point/all</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GET /api/enrollment/{username}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소그룹</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 8,
-        "title": "삭제된 게시글입니다.",
-        "content": "해당 게시글은 사용자가 의해 삭제되었습니다.",
-        "author": "rupee",
-        "createdDate": "2025-01-21T19:49:34.115319",
-        "modifiedDate": "2025-01-21T19:56:04.562137"
-    }
-]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[
-    {
-        "id": 1,
-        "subjectName": "2종 보통 면허",
-        "username": "totoro",
-        "price": 10000.0
-    },
-    {
-        "id": 2,
-        "subjectName": "1종 자동.1종 수동 면허",
-        "username": "pengsoo",
-        "price": 10000.0
-    },
-    {
-        "id": 3,
-        "subjectName": "1종 대형 면허",
-        "username": "pororo",
-        "price": 10000.0
     }
 ]</x:t>
   </x:si>
@@ -1789,34 +1180,681 @@
 ]</x:t>
   </x:si>
   <x:si>
+    <x:t>{
+    "id": 7,
+    "user": "rupee",
+    "comment": "학원에서 드리프트도 할 수 있나요?",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 7,
+    "user": "rupee",
+    "comment": "운전 어려운데 어떻게 쉽게 하나요?",
+    "boardId": 1
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "본인이 수강 신청한 과목만 조회할 수 있습니다."
+}
+{
+    "ERROR": "로그인한 사용자만 수강 신청 내역을 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>모든 유저</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>유저 평균</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 포인트 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인 후 이용 가능합니다."
+}
+{
+"ERROR": "관리자만 공지사항을 추가할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 게시글 조회가 가능합니다."
+}
+{
+"Resource Not Found": "없음"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학습 완료 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강 완료 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "username": "fourbie",
+        "subjectName": "1종 자동.1종 수동 면허",
+        "price": 10000.0
+    },
+    {
+        "username": "pororo",
+        "subjectName": "2종 보통 면허",
+        "price": 10000.0
+    },
+    {
+        "username": "totoro",
+        "subjectName": "1종 대형 면허",
+        "price": 10000.0
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 &amp; 구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 검색</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기능설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">강의 내용 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장바구니 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강사 권한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/subject/add</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">{
-  "user_name": "totoro",
-  "purchase_date": "2023-01-15",
-  "purchased_courses": [
-    {
-      "course_id": 1,
-      "title": "1종 수동 면허",
-      "price": 10000,
-      "quantity": 1
-    },
-    {
-      "course_id": 2,
-      "title": "2종 보통 면허",
-      "price": 10000,
-      "quantity": 1
-    }
-  ],
-  "total_amount": 20000
+  "name": "전기자동차"
 }
 </x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 수정이 가능합니다."
+    <x:t>기존사용자 아이디와 
+패스워드로 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/comment/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 게시판의 모든 글을 조회 하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>입력하신 정보가 
+올바르지 않습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"입력하신 정보가 이미 존재합니다."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자가 올린 게시글만 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{
+  "name": "전기트럭"
+}
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/most</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 회원이 게시판 글을 등록하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 장바구니 목록 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정회원 구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원이 학습 
+완료한 목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 정보를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 
+구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 모두 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 
+내용을 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항에 글을 등록하는기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 의 모든 과목을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">해당 강의 동영상을 삭제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 
+내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 강의 
+내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃이 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 삭제가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 답글을 id로 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수정이 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 과목의 동영상을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 게시한 게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 유저 장바구니 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 탈퇴가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삭제가 완료 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Request Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>올린 공지사항의 전체를 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자 권한으로 
+정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소  삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타입 추가가 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소그룹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT /api/subject/update/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/image/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/enrollment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName" : "rupee"
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/user/point/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api//point/use/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GET /api/admin/user/average
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/comment/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUT/api/user/update/password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/video/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api//admin/add/car/type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 한 사람이 관리자일 경우 모든 수강신청 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/cart/user/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE/api/board/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/enrollment/subject/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DELETE /api/subject/delete/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/notice/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의가 성공적으로 삭제되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자의 답글을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 영상이 등록 되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 모든 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유저네임으로 수강 신청을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 되어있던 사용자 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/board/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 회원의 수강신청을 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이전에 가입한 
+회원조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>birthdate으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 등록이 완료되었습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/cart/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타입 수정이 완료되었습니다.
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/video/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 제목 게시글을 보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강을 완료한 
+회원 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수강 신청한 특정 회원의 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색한 공지사항을 
+보여주는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판의 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user_name으로 특정회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자의 답글을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>real_name으로 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 수정하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과목별 강의 동영상 자료 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판에 달린 특정 유저 답글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정 날짜에 가입한 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인한 사용자가 게시판을 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지정날짜 이후에 가입한 
+회원조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/user/me</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 작성 게시판 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST/api/board/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/notice/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 공지사항을 
+삭제하는 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 먼저 가입한 
+유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트가 가장 많은 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST /api/image/add</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 최근 가입한
+ 유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/video/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공지사항 클릭시 나오는 화면 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"Resource Not Found": "로그인한 사용자만 조회가 가능합니다."
 }
 {
-"ERROR": "관리자만 공지사항을 수정할 수 있습니다."
-}</x:t>
+"Resource Not Found": "해당 유저는 수강신청을 하지 않았습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "id": 5,
+    "subjectName": "1종 자동.1종 수동 면허",
+    "username": "rupee",
+    "price": 10000.0
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"ERROR": "로그인한 사용자만 수강 신청 내역을 조회할 수 있습니다."
+}
+{
+"ERROR": "관리자만 다른 사용자의 수강 신청 내역을 조회할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"user_name":"pengsoo", 
+"user_point" : "5000"
+"Use_point": "5000"
+"message" : "포인트가 사용되었습니다"
+},</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{ "message": "구매가 완료되었습니다.", "total_amount": 20000, "used_points": 5000, "final_amount": 15000 }</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "rupee",
+        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
+        "email": "rupee@email.com",
+        "realName": "하정우",
+        "birthdate": "1980-11-11",
+        "authority": {
+            "authorityName": "User"
+        },
+        "createdAt": "2025-01-21",
+        "point": 10000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "userName": "crong",
+        "password": "$2a$10$3YWLueQpUmfYtPJZQQL.MePhvUX2plf9O4LoNluZXMd2U.yyYoLmW",
+        "email": "crong@email.com",
+        "realName": "정우성",
+        "birthdate": "1980-12-12",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-17",
+        "point": 10000
+    },
+    {
+        "userName": "pengsoo",
+        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
+        "email": "pengsoo@email.com",
+        "realName": "백병열",
+        "birthdate": "1999-09-09",
+        "authority": {
+            "authorityName": "USER"
+        },
+        "createdAt": "2025-01-16",
+        "point": 10000
+    },
+    {
+        "userName": "rupee",
+        "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
+        "email": "rupee@email.com",
+        "realName": "하정우",
+        "birthdate": "1980-11-11",
+        "authority": {
+            "authorityName": "User"
+        },
+        "createdAt": "2025-01-21",
+        "point": 10000
+    }
+]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": "$2a$10$rmtbLXSRBvwuTNt7tGfvke/eGaEryPKeLvaxYsAH6hU9iv.hUHLcy",
+    "email": "rupee@email.com",
+    "realName": "하정우",
+    "birthdate": "1980-11-11",
+    "authority": {
+        "authorityName": "USER"
+    },
+    "createdAt": "2025-01-21",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+    "userName": "rupee",
+    "password": "$2a$10$PSKPdunOD2jodTq8P.nhCuvzlmbBeO4ab/RvTgN44euNR626OmxaW",
+    "email": "rupee@email.com",
+    "realName": "하정우",
+    "birthdate": "1980-11-11",
+    "authority": {
+        "authorityName": "User"
+    },
+    "createdAt": "2025-01-21",
+    "point": 10000
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET/api/admin/user/point/all</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GET /api/enrollment/{username}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[
+    {
+        "username": "admin",
+        "point": 900000
+    },
+    {
+        "username": "crong",
+        "point": 10000
+    },
+    {
+        "username": "eddie",
+        "point": 19000
+    },
+    {
+        "username": "fourbie",
+        "point": 30000
+    },
+    {
+        "username": "panda",
+        "point": 17000
+    },
+    {
+        "username": "pengsoo",
+        "point": 10000
+    },
+    {
+        "username": "pororo",
+        "point": 15000
+    },
+    {
+        "username": "rupee",
+        "point": 10000
+    },
+    {
+        "username": "totoro",
+        "point": 20000
+    }
+]</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -1844,85 +1882,33 @@
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>새로운 사용자 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 회원을 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 회원 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 이미지주소 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">특정 회원 조회 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 정보를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>특정 유저 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인의 패스워드 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항 전체를 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 내용 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Endpoint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 회원 탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 재생</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강의 동영상 등록</x:t>
+    <x:t>{
+"ERROR": "로그인한 사용자만 수정이 가능합니다."
+}
+{
+"ERROR": "관리자만 공지사항을 수정할 수 있습니다."
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모든 강의 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 전체 조회</x:t>
   </x:si>
   <x:si>
     <x:t>사용자 로그아웃</x:t>
   </x:si>
   <x:si>
-    <x:t>모든 강의 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판 답글 수정</x:t>
+    <x:t>사용자가 포인트 사용</x:t>
   </x:si>
   <x:si>
     <x:t>회원 구매내역 조회</x:t>
   </x:si>
   <x:si>
     <x:t>이미지 내용 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 포인트 사용</x:t>
   </x:si>
   <x:si>
     <x:t>강의 이미지 등록</x:t>
@@ -1944,69 +1930,46 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>게시판 답글</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>유저 포인트</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 조회</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 추가</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 수정</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>자동차 종류</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="맑은 고딕"/>
-        <x:sz val="15"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 삭제</x:t>
-    </x:r>
+    <x:t>이미지 내용 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 회원 탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 동영상 재생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강의 내용 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 회원 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판 답글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">특정 회원 조회 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 이미지주소 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>특정 유저 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인의 패스워드 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Endpoint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항 전체를 조회</x:t>
   </x:si>
   <x:si>
     <x:t>[
@@ -2069,95 +2032,6 @@
 ]</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">[
-    {
-        "userName": "admin",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "admin1234@gmail.com",
-        "realName": "관리자",
-        "birthdate": "1999-01-01",
-        "authority": {
-            "authorityName": "ADMIN"
-        },
-        "createdAt": "2025-01-16",
-        "point": 500000
-    },
-    {
-        "userName": "eddie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "eddie@email.com",
-        "realName": "남재우",
-        "birthdate": "1995-09-21",
-        "authority": {
-            "authorityName": "INSTRUCTOR"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "fourbie",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "fourbie@email.com",
-        "realName": "정길수",
-        "birthdate": "1999-06-06",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "panda",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "panda@email.com",
-        "realName": "정강철",
-        "birthdate": "1994-11-11",
-        "authority": {
-            "authorityName": "INSTRUCTOR"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "pengsoo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pengsoo@email.com",
-        "realName": "백병열",
-        "birthdate": "1999-09-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "pororo",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "pororo@email.com",
-        "realName": "김성우",
-        "birthdate": "1999-06-09",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    },
-    {
-        "userName": "totoro",
-        "password": "$2b$12$A0kgVpplgbH3ZZ1E89441eacUXljTTt7nP8I3RdLtW0P6/CXdEnCm",
-        "email": "totoro@email.com",
-        "realName": "강준우",
-        "birthdate": "1999-05-24",
-        "authority": {
-            "authorityName": "USER"
-        },
-        "createdAt": "2025-01-16",
-        "point": 50000
-    }
-]
- </x:t>
-  </x:si>
-  <x:si>
     <x:t>[
     {
         "userName": "admin",
@@ -2246,29 +2120,69 @@
 ]</x:t>
   </x:si>
   <x:si>
-    <x:t>{
-"Resource Not Found": "로그인한 사용자만 장바구니에 과목을 삭제할 수 있습니다."
-}
-{
-"Resource Not Found": "해당 과목을 장바구니에 추가한 사용자가 아닙니다."
-}
-{
-"Resource Not Found": "존재하지 않는 과목입니다."
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"ERROR": "로그인한 사용자만 강의를 수정할 수 있습니다."
-}
-{
-"ERROR": "강사만 강의를 수정할 수 있습니다."
-}
-{
-"ERROR": "관리자는 강의를 수정할 수 없습니다."
-}
-{
-"Resource Not Found": "존재하지 않는 강의입니다."
-}</x:t>
+    <x:r>
+      <x:t>게시판 답글</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>유저 포인트</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 조회</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 추가</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 수정</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>자동차 종류</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="15"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 삭제</x:t>
+    </x:r>
   </x:si>
 </x:sst>
 </file>
@@ -2584,6 +2498,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2666,6 +2581,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2700,6 +2616,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2744,6 +2661,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2787,6 +2705,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2871,6 +2790,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2891,6 +2811,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2921,6 +2842,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -3288,8 +3210,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:H79"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A63" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E65" activeCellId="0" sqref="E65:E65"/>
+    <x:sheetView tabSelected="1" topLeftCell="A53" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="F55" activeCellId="0" sqref="F55:F55"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -3305,934 +3227,934 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="5" t="s">
-        <x:v>289</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>291</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>113</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D1" s="5" t="s">
-        <x:v>316</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="E1" s="5" t="s">
-        <x:v>201</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F1" s="5" t="s">
-        <x:v>304</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G1" s="5" t="s">
-        <x:v>191</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H1" s="6" t="s">
-        <x:v>129</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A2" s="26" t="s">
-        <x:v>131</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B2" s="11" t="s">
-        <x:v>124</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="C2" s="15" t="s">
-        <x:v>300</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D2" s="15" t="s">
-        <x:v>58</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E2" s="13" t="s">
-        <x:v>152</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F2" s="13" t="s">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="13" t="s">
-        <x:v>275</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="H2" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A3" s="26"/>
       <x:c r="B3" s="11" t="s">
-        <x:v>111</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C3" s="11" t="s">
-        <x:v>282</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D3" s="15" t="s">
-        <x:v>272</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E3" s="13" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="F3" s="15" t="s">
-        <x:v>188</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G3" s="13" t="s">
-        <x:v>265</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="H3" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A4" s="26"/>
       <x:c r="B4" s="11" t="s">
-        <x:v>320</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C4" s="11" t="s">
-        <x:v>244</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D4" s="12" t="s">
-        <x:v>266</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E4" s="13" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="F4" s="12" t="s">
-        <x:v>199</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G4" s="13"/>
       <x:c r="H4" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A5" s="26"/>
       <x:c r="B5" s="11" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="C5" s="11" t="s">
         <x:v>329</x:v>
       </x:c>
-      <x:c r="C5" s="11" t="s">
-        <x:v>312</x:v>
-      </x:c>
       <x:c r="D5" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E5" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F5" s="14" t="s">
-        <x:v>150</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G5" s="11" t="s">
-        <x:v>212</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H5" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A6" s="26"/>
       <x:c r="B6" s="11" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>301</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D6" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E6" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F6" s="12" t="s">
-        <x:v>193</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G6" s="11" t="s">
-        <x:v>136</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H6" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A7" s="27"/>
       <x:c r="B7" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>237</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="D7" s="25" t="s">
-        <x:v>216</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E7" s="18"/>
       <x:c r="F7" s="11" t="s">
-        <x:v>148</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G7" s="11" t="s">
-        <x:v>138</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H7" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A8" s="27"/>
       <x:c r="B8" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>241</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D8" s="25" t="s">
-        <x:v>206</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E8" s="18"/>
       <x:c r="F8" s="11" t="s">
-        <x:v>146</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G8" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H8" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A9" s="27"/>
       <x:c r="B9" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>236</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>207</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E9" s="18"/>
       <x:c r="F9" s="11" t="s">
-        <x:v>146</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G9" s="11" t="s">
-        <x:v>140</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H9" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A10" s="27"/>
       <x:c r="B10" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>243</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D10" s="18" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E10" s="18"/>
       <x:c r="F10" s="11" t="s">
-        <x:v>145</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G10" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H10" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A11" s="27"/>
       <x:c r="B11" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>229</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="D11" s="18" t="s">
-        <x:v>52</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E11" s="18"/>
       <x:c r="F11" s="11" t="s">
-        <x:v>337</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G11" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H11" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A12" s="27"/>
       <x:c r="B12" s="18" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C12" s="18" t="s">
-        <x:v>246</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D12" s="18" t="s">
-        <x:v>66</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E12" s="18"/>
       <x:c r="F12" s="11" t="s">
-        <x:v>146</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G12" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H12" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8" ht="266.64999999999998" customHeight="1">
       <x:c r="A13" s="27"/>
       <x:c r="B13" s="18" t="s">
-        <x:v>307</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D13" s="18" t="s">
-        <x:v>50</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>166</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G13" s="11" t="s">
-        <x:v>211</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H13" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A14" s="26"/>
       <x:c r="B14" s="11" t="s">
-        <x:v>314</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>203</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D14" s="15" t="s">
-        <x:v>230</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="E14" s="12"/>
       <x:c r="F14" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G14" s="13"/>
       <x:c r="H14" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A15" s="26"/>
       <x:c r="B15" s="11" t="s">
-        <x:v>119</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C15" s="11" t="s">
-        <x:v>221</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D15" s="15" t="s">
-        <x:v>222</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E15" s="15"/>
       <x:c r="F15" s="11" t="s">
-        <x:v>151</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G15" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="H15" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A16" s="26"/>
       <x:c r="B16" s="12" t="s">
-        <x:v>115</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C16" s="14" t="s">
-        <x:v>228</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="D16" s="12" t="s">
-        <x:v>143</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E16" s="12"/>
       <x:c r="F16" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="14" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H16" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8" s="1" customFormat="1" ht="273" customHeight="1">
       <x:c r="A17" s="26"/>
       <x:c r="B17" s="11" t="s">
-        <x:v>321</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>186</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D17" s="15" t="s">
-        <x:v>270</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E17" s="15"/>
       <x:c r="F17" s="14" t="s">
-        <x:v>294</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G17" s="11"/>
       <x:c r="H17" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A18" s="26"/>
       <x:c r="B18" s="11" t="s">
-        <x:v>128</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C18" s="15" t="s">
-        <x:v>185</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D18" s="15" t="s">
-        <x:v>279</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
       <x:c r="F18" s="13" t="s">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H18" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8" s="1" customFormat="1" ht="273" customHeight="1">
       <x:c r="A19" s="26"/>
       <x:c r="B19" s="12" t="s">
-        <x:v>318</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C19" s="12" t="s">
-        <x:v>179</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D19" s="12" t="s">
-        <x:v>223</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E19" s="12"/>
       <x:c r="F19" s="14" t="s">
-        <x:v>155</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G19" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H19" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A20" s="26"/>
       <x:c r="B20" s="11" t="s">
-        <x:v>322</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C20" s="11" t="s">
-        <x:v>285</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>233</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E20" s="12"/>
       <x:c r="F20" s="11" t="s">
-        <x:v>103</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G20" s="14"/>
       <x:c r="H20" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A21" s="26"/>
       <x:c r="B21" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C21" s="11" t="s">
-        <x:v>328</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D21" s="17" t="s">
-        <x:v>267</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E21" s="12"/>
       <x:c r="F21" s="11" t="s">
-        <x:v>168</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G21" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H21" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A22" s="26"/>
       <x:c r="B22" s="11" t="s">
-        <x:v>122</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C22" s="11" t="s">
-        <x:v>251</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D22" s="15" t="s">
-        <x:v>208</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E22" s="12"/>
       <x:c r="F22" s="11" t="s">
-        <x:v>335</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G22" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H22" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A23" s="26"/>
       <x:c r="B23" s="11" t="s">
-        <x:v>130</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C23" s="11" t="s">
-        <x:v>200</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D23" s="11" t="s">
-        <x:v>218</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E23" s="12"/>
       <x:c r="F23" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G23" s="14" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H23" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A24" s="26"/>
       <x:c r="B24" s="11" t="s">
-        <x:v>120</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C24" s="11" t="s">
-        <x:v>280</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D24" s="15" t="s">
-        <x:v>255</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E24" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F24" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G24" s="14" t="s">
-        <x:v>217</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H24" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A25" s="26"/>
       <x:c r="B25" s="11" t="s">
-        <x:v>118</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C25" s="11" t="s">
-        <x:v>259</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D25" s="15" t="s">
-        <x:v>85</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E25" s="12"/>
       <x:c r="F25" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G25" s="14" t="s">
-        <x:v>159</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="H25" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A26" s="26"/>
       <x:c r="B26" s="11" t="s">
-        <x:v>116</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>260</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D26" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E26" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F26" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G26" s="14" t="s">
-        <x:v>215</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="H26" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A27" s="26"/>
       <x:c r="B27" s="11" t="s">
-        <x:v>250</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>278</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D27" s="17" t="s">
-        <x:v>51</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E27" s="12"/>
       <x:c r="F27" s="11" t="s">
-        <x:v>292</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G27" s="14" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H27" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A28" s="26"/>
       <x:c r="B28" s="11" t="s">
-        <x:v>187</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C28" s="11" t="s">
         <x:v>256</x:v>
       </x:c>
       <x:c r="D28" s="17" t="s">
-        <x:v>273</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E28" s="12"/>
       <x:c r="F28" s="11" t="s">
-        <x:v>99</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G28" s="11" t="s">
-        <x:v>139</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H28" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A29" s="26"/>
       <x:c r="B29" s="11" t="s">
-        <x:v>245</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C29" s="11" t="s">
-        <x:v>242</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D29" s="11" t="s">
-        <x:v>141</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="12"/>
       <x:c r="F29" s="11" t="s">
-        <x:v>90</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G29" s="11" t="s">
-        <x:v>154</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H29" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A30" s="26"/>
       <x:c r="B30" s="11" t="s">
-        <x:v>195</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C30" s="11" t="s">
-        <x:v>261</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D30" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E30" s="12"/>
       <x:c r="F30" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G30" s="11" t="s">
-        <x:v>171</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="H30" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A31" s="26"/>
       <x:c r="B31" s="11" t="s">
-        <x:v>311</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C31" s="11" t="s">
-        <x:v>248</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D31" s="15" t="s">
-        <x:v>281</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E31" s="11" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F31" s="14" t="s">
-        <x:v>22</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G31" s="13" t="s">
-        <x:v>217</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H31" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A32" s="26"/>
       <x:c r="B32" s="11" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C32" s="11" t="s">
-        <x:v>253</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D32" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E32" s="12"/>
       <x:c r="F32" s="11" t="s">
-        <x:v>202</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G32" s="14" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H32" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A33" s="26"/>
       <x:c r="B33" s="11" t="s">
-        <x:v>323</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C33" s="11" t="s">
         <x:v>254</x:v>
       </x:c>
       <x:c r="D33" s="17" t="s">
-        <x:v>271</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E33" s="14" t="s">
-        <x:v>106</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F33" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G33" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H33" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A34" s="26"/>
       <x:c r="B34" s="15" t="s">
-        <x:v>125</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C34" s="11" t="s">
-        <x:v>176</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D34" s="17" t="s">
-        <x:v>231</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E34" s="12"/>
       <x:c r="F34" s="11" t="s">
-        <x:v>293</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G34" s="14" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H34" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A35" s="26"/>
       <x:c r="B35" s="15" t="s">
-        <x:v>125</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C35" s="14" t="s">
-        <x:v>194</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D35" s="15" t="s">
-        <x:v>87</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E35" s="15"/>
       <x:c r="F35" s="11" t="s">
-        <x:v>101</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G35" s="13" t="s">
-        <x:v>153</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H35" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A36" s="26"/>
       <x:c r="B36" s="11" t="s">
-        <x:v>114</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C36" s="11" t="s">
-        <x:v>53</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D36" s="15" t="s">
-        <x:v>263</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E36" s="14" t="s">
-        <x:v>32</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F36" s="11" t="s">
-        <x:v>164</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G36" s="13" t="s">
-        <x:v>17</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H36" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A37" s="26"/>
       <x:c r="B37" s="11" t="s">
-        <x:v>135</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C37" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D37" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E37" s="14"/>
       <x:c r="F37" s="11" t="s">
-        <x:v>196</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G37" s="13" t="s">
-        <x:v>338</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H37" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A38" s="26"/>
       <x:c r="B38" s="11" t="s">
-        <x:v>112</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C38" s="14" t="s">
-        <x:v>62</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D38" s="15" t="s">
-        <x:v>210</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E38" s="15" t="s">
-        <x:v>158</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F38" s="15" t="s">
-        <x:v>163</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="G38" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H38" s="16"/>
     </x:row>
     <x:row r="39" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A39" s="26"/>
       <x:c r="B39" s="11" t="s">
-        <x:v>252</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C39" s="14" t="s">
-        <x:v>86</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D39" s="17" t="s">
-        <x:v>264</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E39" s="17"/>
       <x:c r="F39" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G39" s="19" t="s">
-        <x:v>26</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H39" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A40" s="26"/>
       <x:c r="B40" s="11" t="s">
-        <x:v>252</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C40" s="14" t="s">
-        <x:v>209</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D40" s="17" t="s">
-        <x:v>84</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E40" s="17"/>
       <x:c r="F40" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G40" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H40" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A41" s="26"/>
       <x:c r="B41" s="11" t="s">
-        <x:v>252</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C41" s="14" t="s">
-        <x:v>258</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D41" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="17"/>
       <x:c r="F41" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G41" s="19" t="s">
-        <x:v>161</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="H41" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A42" s="26"/>
       <x:c r="B42" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C42" s="14" t="s">
-        <x:v>184</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D42" s="17" t="s">
-        <x:v>262</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E42" s="17"/>
       <x:c r="F42" s="11"/>
@@ -4242,271 +4164,271 @@
     <x:row r="43" spans="1:8" s="10" customFormat="1" ht="273" customHeight="1">
       <x:c r="A43" s="28"/>
       <x:c r="B43" s="21" t="s">
-        <x:v>133</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C43" s="20" t="s">
-        <x:v>6</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D43" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E43" s="20"/>
       <x:c r="F43" s="13" t="s">
-        <x:v>149</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G43" s="22" t="s">
-        <x:v>46</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H43" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8" s="10" customFormat="1" ht="273" customHeight="1">
       <x:c r="A44" s="28"/>
       <x:c r="B44" s="21" t="s">
-        <x:v>123</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C44" s="20" t="s">
-        <x:v>326</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D44" s="12" t="s">
-        <x:v>76</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E44" s="14" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F44" s="13" t="s">
-        <x:v>160</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="G44" s="22" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H44" s="23"/>
     </x:row>
     <x:row r="45" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A45" s="26" t="s">
-        <x:v>132</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B45" s="11" t="s">
-        <x:v>127</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C45" s="14" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D45" s="12" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="D45" s="12" t="s">
-        <x:v>274</x:v>
-      </x:c>
       <x:c r="E45" s="14" t="s">
-        <x:v>172</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F45" s="13" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G45" s="13" t="s">
-        <x:v>156</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H45" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A46" s="26"/>
       <x:c r="B46" s="11" t="s">
-        <x:v>315</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="C46" s="14" t="s">
-        <x:v>180</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D46" s="12" t="s">
-        <x:v>80</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E46" s="13" t="s">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F46" s="14" t="s">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G46" s="13" t="s">
-        <x:v>339</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H46" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A47" s="26"/>
       <x:c r="B47" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C47" s="14" t="s">
-        <x:v>192</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D47" s="12" t="s">
-        <x:v>83</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E47" s="12"/>
       <x:c r="F47" s="13" t="s">
-        <x:v>235</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G47" s="13" t="s">
-        <x:v>102</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H47" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A48" s="26"/>
       <x:c r="B48" s="12" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C48" s="14" t="s">
-        <x:v>232</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D48" s="12" t="s">
-        <x:v>238</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E48" s="14" t="s">
-        <x:v>157</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F48" s="12" t="s">
-        <x:v>247</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G48" s="13"/>
       <x:c r="H48" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A49" s="26"/>
       <x:c r="B49" s="12" t="s">
-        <x:v>4</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C49" s="12" t="s">
-        <x:v>198</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D49" s="12" t="s">
-        <x:v>63</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E49" s="14" t="s">
-        <x:v>45</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F49" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G49" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H49" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A50" s="26"/>
       <x:c r="B50" s="12" t="s">
-        <x:v>303</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C50" s="12" t="s">
-        <x:v>190</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D50" s="12" t="s">
-        <x:v>78</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E50" s="12"/>
       <x:c r="F50" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G50" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H50" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A51" s="26"/>
       <x:c r="B51" s="12" t="s">
-        <x:v>325</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="C51" s="12" t="s">
-        <x:v>327</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D51" s="12" t="s">
-        <x:v>225</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E51" s="14" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F51" s="12" t="s">
-        <x:v>234</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G51" s="14"/>
       <x:c r="H51" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A52" s="26"/>
       <x:c r="B52" s="12" t="s">
-        <x:v>313</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="C52" s="12" t="s">
-        <x:v>174</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D52" s="12" t="s">
-        <x:v>75</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E52" s="12"/>
       <x:c r="F52" s="12" t="s">
-        <x:v>196</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G52" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H52" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A53" s="26"/>
       <x:c r="B53" s="12" t="s">
-        <x:v>302</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C53" s="12" t="s">
-        <x:v>306</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="D53" s="12" t="s">
-        <x:v>68</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E53" s="14" t="s">
-        <x:v>297</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F53" s="12" t="s">
-        <x:v>197</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G53" s="14" t="s">
-        <x:v>277</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H53" s="16" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A54" s="26" t="s">
-        <x:v>121</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B54" s="15" t="s">
-        <x:v>324</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C54" s="15" t="s">
-        <x:v>178</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D54" s="15" t="s">
-        <x:v>73</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E54" s="12"/>
       <x:c r="F54" s="11" t="s">
-        <x:v>165</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G54" s="12"/>
       <x:c r="H54" s="16"/>
@@ -4514,17 +4436,17 @@
     <x:row r="55" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A55" s="26"/>
       <x:c r="B55" s="15" t="s">
-        <x:v>177</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C55" s="11" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="D55" s="15" t="s">
-        <x:v>29</x:v>
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D55" s="11" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E55" s="12"/>
       <x:c r="F55" s="11" t="s">
-        <x:v>295</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G55" s="12"/>
       <x:c r="H55" s="16"/>
@@ -4532,105 +4454,105 @@
     <x:row r="56" spans="1:8" s="2" customFormat="1" ht="273" customHeight="1">
       <x:c r="A56" s="26"/>
       <x:c r="B56" s="12" t="s">
-        <x:v>133</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C56" s="14" t="s">
-        <x:v>220</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D56" s="14" t="s">
-        <x:v>276</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E56" s="12"/>
       <x:c r="F56" s="14" t="s">
-        <x:v>147</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G56" s="14" t="s">
-        <x:v>93</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="H56" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A57" s="26"/>
       <x:c r="B57" s="12" t="s">
-        <x:v>331</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C57" s="14" t="s">
-        <x:v>269</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D57" s="14" t="s">
-        <x:v>59</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E57" s="12"/>
       <x:c r="F57" s="14" t="s">
-        <x:v>167</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G57" s="14" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H57" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A58" s="26"/>
       <x:c r="B58" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C58" s="12" t="s">
-        <x:v>205</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D58" s="14" t="s">
-        <x:v>82</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E58" s="12"/>
       <x:c r="F58" s="24">
         <x:v>114555.55560000001</x:v>
       </x:c>
       <x:c r="G58" s="14" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="H58" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A59" s="26"/>
       <x:c r="B59" s="11" t="s">
-        <x:v>204</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C59" s="11" t="s">
-        <x:v>204</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D59" s="11" t="s">
-        <x:v>286</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E59" s="15"/>
       <x:c r="F59" s="14" t="s">
-        <x:v>169</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="G59" s="11" t="s">
-        <x:v>299</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="H59" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A60" s="26"/>
       <x:c r="B60" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C60" s="11" t="s">
-        <x:v>240</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D60" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E60" s="12"/>
       <x:c r="F60" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G60" s="13"/>
       <x:c r="H60" s="16"/>
@@ -4638,246 +4560,248 @@
     <x:row r="61" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A61" s="26"/>
       <x:c r="B61" s="12" t="s">
-        <x:v>110</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C61" s="12" t="s">
-        <x:v>181</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D61" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E61" s="14" t="s">
-        <x:v>109</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F61" s="14" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G61" s="13" t="s">
-        <x:v>170</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="H61" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A62" s="26"/>
       <x:c r="B62" s="12" t="s">
-        <x:v>117</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C62" s="14" t="s">
-        <x:v>224</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D62" s="14" t="s">
-        <x:v>144</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E62" s="12"/>
       <x:c r="F62" s="14" t="s">
-        <x:v>182</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G62" s="14" t="s">
-        <x:v>298</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H62" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A63" s="26"/>
       <x:c r="B63" s="12" t="s">
-        <x:v>126</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C63" s="14" t="s">
-        <x:v>239</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D63" s="12" t="s">
-        <x:v>214</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E63" s="14" t="s">
-        <x:v>108</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="F63" s="14" t="s">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G63" s="14" t="s">
-        <x:v>296</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="H63" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A64" s="26"/>
       <x:c r="B64" s="12" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C64" s="14" t="s">
-        <x:v>69</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D64" s="12" t="s">
-        <x:v>88</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E64" s="14" t="s">
-        <x:v>283</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F64" s="14" t="s">
-        <x:v>173</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G64" s="14" t="s">
-        <x:v>105</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H64" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A65" s="26"/>
       <x:c r="B65" s="12" t="s">
-        <x:v>334</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C65" s="14" t="s">
-        <x:v>55</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D65" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E65" s="14"/>
       <x:c r="F65" s="14" t="s">
-        <x:v>182</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G65" s="14" t="s">
-        <x:v>92</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H65" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:8" s="8" customFormat="1" ht="273" customHeight="1">
       <x:c r="A66" s="26"/>
       <x:c r="B66" s="12" t="s">
-        <x:v>333</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C66" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D66" s="14" t="s">
-        <x:v>142</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E66" s="14" t="s">
-        <x:v>284</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F66" s="14" t="s">
-        <x:v>227</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G66" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="H66" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:8" s="2" customFormat="1" ht="273" customHeight="1">
       <x:c r="A67" s="26"/>
       <x:c r="B67" s="12" t="s">
-        <x:v>310</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C67" s="14" t="s">
-        <x:v>219</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D67" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E67" s="14"/>
       <x:c r="F67" s="14" t="s">
-        <x:v>337</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="G67" s="14"/>
       <x:c r="H67" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:8" s="2" customFormat="1" ht="273" customHeight="1">
       <x:c r="A68" s="26"/>
       <x:c r="B68" s="12" t="s">
-        <x:v>310</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C68" s="14" t="s">
-        <x:v>226</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D68" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E68" s="14"/>
       <x:c r="F68" s="14" t="s">
-        <x:v>146</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="G68" s="14"/>
       <x:c r="H68" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:8" s="7" customFormat="1" ht="266.64999999999998" customHeight="1">
       <x:c r="A69" s="26"/>
       <x:c r="B69" s="12" t="s">
-        <x:v>305</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C69" s="14" t="s">
-        <x:v>175</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D69" s="12" t="s">
-        <x:v>213</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E69" s="12"/>
       <x:c r="F69" s="11" t="s">
-        <x:v>147</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G69" s="11" t="s">
-        <x:v>104</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H69" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A70" s="26"/>
       <x:c r="B70" s="11" t="s">
-        <x:v>268</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C70" s="14" t="s">
         <x:v>257</x:v>
       </x:c>
       <x:c r="D70" s="15" t="s">
-        <x:v>287</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E70" s="15"/>
       <x:c r="F70" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G70" s="19" t="s">
-        <x:v>162</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H70" s="16" t="s">
-        <x:v>290</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:8" s="7" customFormat="1" ht="273" customHeight="1">
       <x:c r="A71" s="26"/>
       <x:c r="B71" s="11" t="s">
-        <x:v>308</x:v>
-      </x:c>
-      <x:c r="C71" s="12" t="s">
-        <x:v>309</x:v>
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C71" s="14" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="12" t="s">
-        <x:v>249</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E71" s="12"/>
       <x:c r="F71" s="13" t="s">
-        <x:v>336</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G71" s="13" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H71" s="16"/>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H71" s="16" t="s">
+        <x:v>233</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="8:8" ht="44.799999999999997">
       <x:c r="H72" s="9"/>
